--- a/Scripts de Python/Reporte Bono Asistencia 2025-September/Reporte_Final_Bono_Asistencia_September_REVISION.xlsx
+++ b/Scripts de Python/Reporte Bono Asistencia 2025-September/Reporte_Final_Bono_Asistencia_September_REVISION.xlsx
@@ -2958,7 +2958,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ am/pm"/>
+    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -3048,21 +3048,18 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3071,6 +3068,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3378,7 +3378,7 @@
   <dimension ref="A1:Q290"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3413,37 +3413,37 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>867</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>866</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>868</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="13" t="s">
         <v>869</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="13" t="s">
         <v>870</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="13" t="s">
         <v>871</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>872</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="4" t="s">
         <v>873</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="4" t="s">
         <v>969</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="4" t="s">
         <v>970</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="Q1" s="12" t="s">
         <v>971</v>
       </c>
     </row>
@@ -3451,32 +3451,32 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>292</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="15">
         <v>45908</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>579</v>
       </c>
-      <c r="F2" s="15" t="s">
-        <v>580</v>
-      </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15">
+      <c r="F2" s="14" t="s">
+        <v>580</v>
+      </c>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14">
         <v>0</v>
       </c>
     </row>
@@ -3484,32 +3484,32 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="15">
         <v>45908</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="14" t="s">
         <v>579</v>
       </c>
-      <c r="F3" s="15" t="s">
-        <v>580</v>
-      </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15">
+      <c r="F3" s="14" t="s">
+        <v>580</v>
+      </c>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14">
         <v>0</v>
       </c>
     </row>
@@ -3517,32 +3517,32 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="15">
         <v>45908</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="14" t="s">
         <v>579</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="14" t="s">
         <v>581</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15">
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14">
         <v>0</v>
       </c>
     </row>
@@ -3550,32 +3550,32 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="15">
         <v>45908</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="14" t="s">
         <v>579</v>
       </c>
-      <c r="F5" s="15" t="s">
-        <v>580</v>
-      </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15">
+      <c r="F5" s="14" t="s">
+        <v>580</v>
+      </c>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14">
         <v>0</v>
       </c>
     </row>
@@ -3583,32 +3583,32 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="15">
         <v>45901</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="14" t="s">
         <v>579</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="14" t="s">
         <v>582</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15">
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14">
         <v>0</v>
       </c>
     </row>
@@ -3616,32 +3616,32 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="15">
         <v>45894</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="14" t="s">
         <v>579</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="14" t="s">
         <v>583</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15">
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14">
         <v>0</v>
       </c>
     </row>
@@ -3649,32 +3649,32 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="15">
         <v>45894</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="14" t="s">
         <v>579</v>
       </c>
-      <c r="F8" s="15" t="s">
-        <v>580</v>
-      </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15">
+      <c r="F8" s="14" t="s">
+        <v>580</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14">
         <v>0</v>
       </c>
     </row>
@@ -3682,32 +3682,32 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="15">
         <v>45894</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="14" t="s">
         <v>579</v>
       </c>
-      <c r="F9" s="15" t="s">
-        <v>584</v>
-      </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15">
+      <c r="F9" s="14" t="s">
+        <v>584</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14">
         <v>0</v>
       </c>
     </row>
@@ -3715,32 +3715,32 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="15">
         <v>45894</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="14" t="s">
         <v>579</v>
       </c>
-      <c r="F10" s="15" t="s">
-        <v>584</v>
-      </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15">
+      <c r="F10" s="14" t="s">
+        <v>584</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14">
         <v>0</v>
       </c>
     </row>
@@ -3748,32 +3748,32 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="15">
         <v>45894</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="14" t="s">
         <v>579</v>
       </c>
-      <c r="F11" s="15" t="s">
-        <v>580</v>
-      </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15">
+      <c r="F11" s="14" t="s">
+        <v>580</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14">
         <v>0</v>
       </c>
     </row>
@@ -3781,32 +3781,32 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="15">
         <v>45894</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="14" t="s">
         <v>579</v>
       </c>
-      <c r="F12" s="15" t="s">
-        <v>580</v>
-      </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15">
+      <c r="F12" s="14" t="s">
+        <v>580</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14">
         <v>0</v>
       </c>
     </row>
@@ -10450,13 +10450,13 @@
       <c r="D2" t="s">
         <v>584</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
         <v>45889</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <v>45889.326388888891</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="6">
         <v>45889.33488425926</v>
       </c>
       <c r="H2">
@@ -10470,16 +10470,16 @@
       </c>
     </row>
     <row r="3" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>877</v>
       </c>
       <c r="B3">
         <f>SUBTOTAL(3,B2:B2)</f>
         <v>1</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -10491,13 +10491,13 @@
       <c r="D4" t="s">
         <v>583</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>45877</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <v>45877.326388888891</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <v>45877.334768518522</v>
       </c>
       <c r="H4">
@@ -10520,13 +10520,13 @@
       <c r="D5" t="s">
         <v>583</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>45887</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>45887.326388888891</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <v>45887.334085648137</v>
       </c>
       <c r="H5">
@@ -10549,13 +10549,13 @@
       <c r="D6" t="s">
         <v>583</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>45898</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <v>45898.326388888891</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <v>45898.340798611112</v>
       </c>
       <c r="H6">
@@ -10578,13 +10578,13 @@
       <c r="D7" t="s">
         <v>583</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <v>45903</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <v>45903.326388888891</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <v>45903.344490740739</v>
       </c>
       <c r="H7">
@@ -10598,16 +10598,16 @@
       </c>
     </row>
     <row r="8" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>878</v>
       </c>
       <c r="B8">
         <f>SUBTOTAL(3,B4:B7)</f>
         <v>4</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
@@ -10619,13 +10619,13 @@
       <c r="D9" t="s">
         <v>580</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <v>45882</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <v>45882.326388888891</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <v>45882.506249999999</v>
       </c>
       <c r="H9">
@@ -10639,16 +10639,16 @@
       </c>
     </row>
     <row r="10" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>879</v>
       </c>
       <c r="B10">
         <f>SUBTOTAL(3,B9:B9)</f>
         <v>1</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
@@ -10660,13 +10660,13 @@
       <c r="D11" t="s">
         <v>585</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <v>45875</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <v>45875.326388888891</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="6">
         <v>45875.336400462962</v>
       </c>
       <c r="H11">
@@ -10680,16 +10680,16 @@
       </c>
     </row>
     <row r="12" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>880</v>
       </c>
       <c r="B12">
         <f>SUBTOTAL(3,B11:B11)</f>
         <v>1</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
@@ -10701,13 +10701,13 @@
       <c r="D13" t="s">
         <v>580</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="7">
         <v>45894</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="6">
         <v>45894.243055555547</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="6">
         <v>45894.297430555547</v>
       </c>
       <c r="H13">
@@ -10730,13 +10730,13 @@
       <c r="D14" t="s">
         <v>580</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="7">
         <v>45901</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="6">
         <v>45901.243055555547</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="6">
         <v>45901.324618055558</v>
       </c>
       <c r="H14">
@@ -10750,16 +10750,16 @@
       </c>
     </row>
     <row r="15" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>881</v>
       </c>
       <c r="B15">
         <f>SUBTOTAL(3,B13:B14)</f>
         <v>2</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
@@ -10771,13 +10771,13 @@
       <c r="D16" t="s">
         <v>580</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="7">
         <v>45894</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="6">
         <v>45894.243055555547</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="6">
         <v>45894.326388888891</v>
       </c>
       <c r="H16">
@@ -10800,13 +10800,13 @@
       <c r="D17" t="s">
         <v>580</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="7">
         <v>45895</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="6">
         <v>45895.243055555547</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="6">
         <v>45895.326388888891</v>
       </c>
       <c r="H17">
@@ -10820,16 +10820,16 @@
       </c>
     </row>
     <row r="18" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="8" t="s">
         <v>882</v>
       </c>
       <c r="B18">
         <f>SUBTOTAL(3,B16:B17)</f>
         <v>2</v>
       </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
@@ -10841,13 +10841,13 @@
       <c r="D19" t="s">
         <v>580</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="7">
         <v>45890</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="6">
         <v>45890.833333333343</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="6">
         <v>45890.863553240742</v>
       </c>
       <c r="H19">
@@ -10861,16 +10861,16 @@
       </c>
     </row>
     <row r="20" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="8" t="s">
         <v>883</v>
       </c>
       <c r="B20">
         <f>SUBTOTAL(3,B19:B19)</f>
         <v>1</v>
       </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
     </row>
     <row r="21" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
@@ -10882,13 +10882,13 @@
       <c r="D21" t="s">
         <v>580</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="7">
         <v>45903</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="6">
         <v>45903.833333333343</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="6">
         <v>45903.842743055553</v>
       </c>
       <c r="H21">
@@ -10902,16 +10902,16 @@
       </c>
     </row>
     <row r="22" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="8" t="s">
         <v>884</v>
       </c>
       <c r="B22">
         <f>SUBTOTAL(3,B21:B21)</f>
         <v>1</v>
       </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
     </row>
     <row r="23" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
@@ -10923,13 +10923,13 @@
       <c r="D23" t="s">
         <v>581</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="7">
         <v>45888</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="6">
         <v>45888.326388888891</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="6">
         <v>45888.445868055547</v>
       </c>
       <c r="H23">
@@ -10943,16 +10943,16 @@
       </c>
     </row>
     <row r="24" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="8" t="s">
         <v>885</v>
       </c>
       <c r="B24">
         <f>SUBTOTAL(3,B23:B23)</f>
         <v>1</v>
       </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
     </row>
     <row r="25" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
@@ -10964,13 +10964,13 @@
       <c r="D25" t="s">
         <v>580</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="7">
         <v>45896</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="6">
         <v>45896.326388888891</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="6">
         <v>45896.333668981482</v>
       </c>
       <c r="H25">
@@ -10984,16 +10984,16 @@
       </c>
     </row>
     <row r="26" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="8" t="s">
         <v>886</v>
       </c>
       <c r="B26">
         <f>SUBTOTAL(3,B25:B25)</f>
         <v>1</v>
       </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
     </row>
     <row r="27" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
@@ -11005,13 +11005,13 @@
       <c r="D27" t="s">
         <v>580</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="7">
         <v>45902</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="6">
         <v>45902.243055555547</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="6">
         <v>45902.301527777781</v>
       </c>
       <c r="H27">
@@ -11034,13 +11034,13 @@
       <c r="D28" t="s">
         <v>580</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28" s="7">
         <v>45903</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="6">
         <v>45903.243055555547</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G28" s="6">
         <v>45903.306377314817</v>
       </c>
       <c r="H28">
@@ -11054,16 +11054,16 @@
       </c>
     </row>
     <row r="29" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="8" t="s">
         <v>887</v>
       </c>
       <c r="B29">
         <f>SUBTOTAL(3,B27:B28)</f>
         <v>2</v>
       </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
     </row>
     <row r="30" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
@@ -11075,13 +11075,13 @@
       <c r="D30" t="s">
         <v>584</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30" s="7">
         <v>45880</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="6">
         <v>45880.326388888891</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G30" s="6">
         <v>45880.466145833343</v>
       </c>
       <c r="H30">
@@ -11104,13 +11104,13 @@
       <c r="D31" t="s">
         <v>584</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="7">
         <v>45898</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="6">
         <v>45898.326388888891</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G31" s="6">
         <v>45898.334317129629</v>
       </c>
       <c r="H31">
@@ -11133,13 +11133,13 @@
       <c r="D32" t="s">
         <v>584</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32" s="7">
         <v>45902</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="6">
         <v>45902.326388888891</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G32" s="6">
         <v>45902.33388888889</v>
       </c>
       <c r="H32">
@@ -11153,16 +11153,16 @@
       </c>
     </row>
     <row r="33" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="8" t="s">
         <v>888</v>
       </c>
       <c r="B33">
         <f>SUBTOTAL(3,B30:B32)</f>
         <v>3</v>
       </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
     </row>
     <row r="34" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
@@ -11174,13 +11174,13 @@
       <c r="D34" t="s">
         <v>584</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E34" s="7">
         <v>45887</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F34" s="6">
         <v>45887.326388888891</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G34" s="6">
         <v>45887.334340277783</v>
       </c>
       <c r="H34">
@@ -11203,13 +11203,13 @@
       <c r="D35" t="s">
         <v>584</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E35" s="7">
         <v>45897</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F35" s="6">
         <v>45897.326388888891</v>
       </c>
-      <c r="G35" s="7">
+      <c r="G35" s="6">
         <v>45897.334837962961</v>
       </c>
       <c r="H35">
@@ -11232,13 +11232,13 @@
       <c r="D36" t="s">
         <v>584</v>
       </c>
-      <c r="E36" s="8">
+      <c r="E36" s="7">
         <v>45898</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F36" s="6">
         <v>45898.326388888891</v>
       </c>
-      <c r="G36" s="7">
+      <c r="G36" s="6">
         <v>45898.334965277783</v>
       </c>
       <c r="H36">
@@ -11252,16 +11252,16 @@
       </c>
     </row>
     <row r="37" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="8" t="s">
         <v>889</v>
       </c>
       <c r="B37">
         <f>SUBTOTAL(3,B34:B36)</f>
         <v>3</v>
       </c>
-      <c r="E37" s="8"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
     </row>
     <row r="38" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
@@ -11273,13 +11273,13 @@
       <c r="D38" t="s">
         <v>584</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E38" s="7">
         <v>45875</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F38" s="6">
         <v>45875.326388888891</v>
       </c>
-      <c r="G38" s="7">
+      <c r="G38" s="6">
         <v>45875.3356712963</v>
       </c>
       <c r="H38">
@@ -11302,13 +11302,13 @@
       <c r="D39" t="s">
         <v>584</v>
       </c>
-      <c r="E39" s="8">
+      <c r="E39" s="7">
         <v>45889</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F39" s="6">
         <v>45889.326388888891</v>
       </c>
-      <c r="G39" s="7">
+      <c r="G39" s="6">
         <v>45889.337465277778</v>
       </c>
       <c r="H39">
@@ -11331,13 +11331,13 @@
       <c r="D40" t="s">
         <v>584</v>
       </c>
-      <c r="E40" s="8">
+      <c r="E40" s="7">
         <v>45890</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F40" s="6">
         <v>45890.326388888891</v>
       </c>
-      <c r="G40" s="7">
+      <c r="G40" s="6">
         <v>45890.335138888891</v>
       </c>
       <c r="H40">
@@ -11360,13 +11360,13 @@
       <c r="D41" t="s">
         <v>584</v>
       </c>
-      <c r="E41" s="8">
+      <c r="E41" s="7">
         <v>45891</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F41" s="6">
         <v>45891.326388888891</v>
       </c>
-      <c r="G41" s="7">
+      <c r="G41" s="6">
         <v>45891.333749999998</v>
       </c>
       <c r="H41">
@@ -11389,13 +11389,13 @@
       <c r="D42" t="s">
         <v>584</v>
       </c>
-      <c r="E42" s="8">
+      <c r="E42" s="7">
         <v>45895</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F42" s="6">
         <v>45895.326388888891</v>
       </c>
-      <c r="G42" s="7">
+      <c r="G42" s="6">
         <v>45895.340208333328</v>
       </c>
       <c r="H42">
@@ -11418,13 +11418,13 @@
       <c r="D43" t="s">
         <v>584</v>
       </c>
-      <c r="E43" s="8">
+      <c r="E43" s="7">
         <v>45896</v>
       </c>
-      <c r="F43" s="7">
+      <c r="F43" s="6">
         <v>45896.326388888891</v>
       </c>
-      <c r="G43" s="7">
+      <c r="G43" s="6">
         <v>45896.335277777784</v>
       </c>
       <c r="H43">
@@ -11447,13 +11447,13 @@
       <c r="D44" t="s">
         <v>584</v>
       </c>
-      <c r="E44" s="8">
+      <c r="E44" s="7">
         <v>45897</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F44" s="6">
         <v>45897.326388888891</v>
       </c>
-      <c r="G44" s="7">
+      <c r="G44" s="6">
         <v>45897.338437500002</v>
       </c>
       <c r="H44">
@@ -11476,13 +11476,13 @@
       <c r="D45" t="s">
         <v>584</v>
       </c>
-      <c r="E45" s="8">
+      <c r="E45" s="7">
         <v>45898</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F45" s="6">
         <v>45898.326388888891</v>
       </c>
-      <c r="G45" s="7">
+      <c r="G45" s="6">
         <v>45898.339780092603</v>
       </c>
       <c r="H45">
@@ -11505,13 +11505,13 @@
       <c r="D46" t="s">
         <v>584</v>
       </c>
-      <c r="E46" s="8">
+      <c r="E46" s="7">
         <v>45901</v>
       </c>
-      <c r="F46" s="7">
+      <c r="F46" s="6">
         <v>45901.326388888891</v>
       </c>
-      <c r="G46" s="7">
+      <c r="G46" s="6">
         <v>45901.334965277783</v>
       </c>
       <c r="H46">
@@ -11534,13 +11534,13 @@
       <c r="D47" t="s">
         <v>584</v>
       </c>
-      <c r="E47" s="8">
+      <c r="E47" s="7">
         <v>45902</v>
       </c>
-      <c r="F47" s="7">
+      <c r="F47" s="6">
         <v>45902.326388888891</v>
       </c>
-      <c r="G47" s="7">
+      <c r="G47" s="6">
         <v>45902.343935185178</v>
       </c>
       <c r="H47">
@@ -11563,13 +11563,13 @@
       <c r="D48" t="s">
         <v>584</v>
       </c>
-      <c r="E48" s="8">
+      <c r="E48" s="7">
         <v>45904</v>
       </c>
-      <c r="F48" s="7">
+      <c r="F48" s="6">
         <v>45904.326388888891</v>
       </c>
-      <c r="G48" s="7">
+      <c r="G48" s="6">
         <v>45904.334467592591</v>
       </c>
       <c r="H48">
@@ -11583,16 +11583,16 @@
       </c>
     </row>
     <row r="49" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="8" t="s">
         <v>890</v>
       </c>
       <c r="B49">
         <f>SUBTOTAL(3,B38:B48)</f>
         <v>11</v>
       </c>
-      <c r="E49" s="8"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
     </row>
     <row r="50" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
@@ -11604,13 +11604,13 @@
       <c r="D50" t="s">
         <v>580</v>
       </c>
-      <c r="E50" s="8">
+      <c r="E50" s="7">
         <v>45877</v>
       </c>
-      <c r="F50" s="7">
+      <c r="F50" s="6">
         <v>45877.243055555547</v>
       </c>
-      <c r="G50" s="7">
+      <c r="G50" s="6">
         <v>45877.306504629632</v>
       </c>
       <c r="H50">
@@ -11633,13 +11633,13 @@
       <c r="D51" t="s">
         <v>580</v>
       </c>
-      <c r="E51" s="8">
+      <c r="E51" s="7">
         <v>45887</v>
       </c>
-      <c r="F51" s="7">
+      <c r="F51" s="6">
         <v>45887.326388888891</v>
       </c>
-      <c r="G51" s="7">
+      <c r="G51" s="6">
         <v>45887.336041666669</v>
       </c>
       <c r="H51">
@@ -11653,16 +11653,16 @@
       </c>
     </row>
     <row r="52" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="8" t="s">
         <v>891</v>
       </c>
       <c r="B52">
         <f>SUBTOTAL(3,B50:B51)</f>
         <v>2</v>
       </c>
-      <c r="E52" s="8"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
     </row>
     <row r="53" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
@@ -11674,13 +11674,13 @@
       <c r="D53" t="s">
         <v>580</v>
       </c>
-      <c r="E53" s="8">
+      <c r="E53" s="7">
         <v>45882</v>
       </c>
-      <c r="F53" s="7">
+      <c r="F53" s="6">
         <v>45882.243055555547</v>
       </c>
-      <c r="G53" s="7">
+      <c r="G53" s="6">
         <v>45882.276342592602</v>
       </c>
       <c r="H53">
@@ -11694,16 +11694,16 @@
       </c>
     </row>
     <row r="54" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="8" t="s">
         <v>892</v>
       </c>
       <c r="B54">
         <f>SUBTOTAL(3,B53:B53)</f>
         <v>1</v>
       </c>
-      <c r="E54" s="8"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
     </row>
     <row r="55" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
@@ -11715,13 +11715,13 @@
       <c r="D55" t="s">
         <v>584</v>
       </c>
-      <c r="E55" s="8">
+      <c r="E55" s="7">
         <v>45898</v>
       </c>
-      <c r="F55" s="7">
+      <c r="F55" s="6">
         <v>45898.326388888891</v>
       </c>
-      <c r="G55" s="7">
+      <c r="G55" s="6">
         <v>45898.336331018523</v>
       </c>
       <c r="H55">
@@ -11735,16 +11735,16 @@
       </c>
     </row>
     <row r="56" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="8" t="s">
         <v>893</v>
       </c>
       <c r="B56">
         <f>SUBTOTAL(3,B55:B55)</f>
         <v>1</v>
       </c>
-      <c r="E56" s="8"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
     </row>
     <row r="57" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
@@ -11756,13 +11756,13 @@
       <c r="D57" t="s">
         <v>584</v>
       </c>
-      <c r="E57" s="8">
+      <c r="E57" s="7">
         <v>45888</v>
       </c>
-      <c r="F57" s="7">
+      <c r="F57" s="6">
         <v>45888.326388888891</v>
       </c>
-      <c r="G57" s="7">
+      <c r="G57" s="6">
         <v>45888.399583333332</v>
       </c>
       <c r="H57">
@@ -11785,13 +11785,13 @@
       <c r="D58" t="s">
         <v>584</v>
       </c>
-      <c r="E58" s="8">
+      <c r="E58" s="7">
         <v>45896</v>
       </c>
-      <c r="F58" s="7">
+      <c r="F58" s="6">
         <v>45896.517361111109</v>
       </c>
-      <c r="G58" s="7">
+      <c r="G58" s="6">
         <v>45896.529166666667</v>
       </c>
       <c r="H58">
@@ -11805,16 +11805,16 @@
       </c>
     </row>
     <row r="59" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="8" t="s">
         <v>894</v>
       </c>
       <c r="B59">
         <f>SUBTOTAL(3,B57:B58)</f>
         <v>2</v>
       </c>
-      <c r="E59" s="8"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
     </row>
     <row r="60" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
@@ -11826,13 +11826,13 @@
       <c r="D60" t="s">
         <v>584</v>
       </c>
-      <c r="E60" s="8">
+      <c r="E60" s="7">
         <v>45875</v>
       </c>
-      <c r="F60" s="7">
+      <c r="F60" s="6">
         <v>45875.326388888891</v>
       </c>
-      <c r="G60" s="7">
+      <c r="G60" s="6">
         <v>45875.335601851853</v>
       </c>
       <c r="H60">
@@ -11855,13 +11855,13 @@
       <c r="D61" t="s">
         <v>584</v>
       </c>
-      <c r="E61" s="8">
+      <c r="E61" s="7">
         <v>45876</v>
       </c>
-      <c r="F61" s="7">
+      <c r="F61" s="6">
         <v>45876.326388888891</v>
       </c>
-      <c r="G61" s="7">
+      <c r="G61" s="6">
         <v>45876.343981481477</v>
       </c>
       <c r="H61">
@@ -11884,13 +11884,13 @@
       <c r="D62" t="s">
         <v>584</v>
       </c>
-      <c r="E62" s="8">
+      <c r="E62" s="7">
         <v>45880</v>
       </c>
-      <c r="F62" s="7">
+      <c r="F62" s="6">
         <v>45880.326388888891</v>
       </c>
-      <c r="G62" s="7">
+      <c r="G62" s="6">
         <v>45880.354675925933</v>
       </c>
       <c r="H62">
@@ -11913,13 +11913,13 @@
       <c r="D63" t="s">
         <v>584</v>
       </c>
-      <c r="E63" s="8">
+      <c r="E63" s="7">
         <v>45881</v>
       </c>
-      <c r="F63" s="7">
+      <c r="F63" s="6">
         <v>45881.326388888891</v>
       </c>
-      <c r="G63" s="7">
+      <c r="G63" s="6">
         <v>45881.333680555559</v>
       </c>
       <c r="H63">
@@ -11942,13 +11942,13 @@
       <c r="D64" t="s">
         <v>584</v>
       </c>
-      <c r="E64" s="8">
+      <c r="E64" s="7">
         <v>45888</v>
       </c>
-      <c r="F64" s="7">
+      <c r="F64" s="6">
         <v>45888.326388888891</v>
       </c>
-      <c r="G64" s="7">
+      <c r="G64" s="6">
         <v>45888.337604166663</v>
       </c>
       <c r="H64">
@@ -11971,13 +11971,13 @@
       <c r="D65" t="s">
         <v>584</v>
       </c>
-      <c r="E65" s="8">
+      <c r="E65" s="7">
         <v>45891</v>
       </c>
-      <c r="F65" s="7">
+      <c r="F65" s="6">
         <v>45891.326388888891</v>
       </c>
-      <c r="G65" s="7">
+      <c r="G65" s="6">
         <v>45891.335277777784</v>
       </c>
       <c r="H65">
@@ -12000,13 +12000,13 @@
       <c r="D66" t="s">
         <v>584</v>
       </c>
-      <c r="E66" s="8">
+      <c r="E66" s="7">
         <v>45894</v>
       </c>
-      <c r="F66" s="7">
+      <c r="F66" s="6">
         <v>45894.326388888891</v>
       </c>
-      <c r="G66" s="7">
+      <c r="G66" s="6">
         <v>45894.349409722221</v>
       </c>
       <c r="H66">
@@ -12029,13 +12029,13 @@
       <c r="D67" t="s">
         <v>584</v>
       </c>
-      <c r="E67" s="8">
+      <c r="E67" s="7">
         <v>45896</v>
       </c>
-      <c r="F67" s="7">
+      <c r="F67" s="6">
         <v>45896.326388888891</v>
       </c>
-      <c r="G67" s="7">
+      <c r="G67" s="6">
         <v>45896.335381944453</v>
       </c>
       <c r="H67">
@@ -12058,13 +12058,13 @@
       <c r="D68" t="s">
         <v>584</v>
       </c>
-      <c r="E68" s="8">
+      <c r="E68" s="7">
         <v>45897</v>
       </c>
-      <c r="F68" s="7">
+      <c r="F68" s="6">
         <v>45897.326388888891</v>
       </c>
-      <c r="G68" s="7">
+      <c r="G68" s="6">
         <v>45897.346597222233</v>
       </c>
       <c r="H68">
@@ -12087,13 +12087,13 @@
       <c r="D69" t="s">
         <v>584</v>
       </c>
-      <c r="E69" s="8">
+      <c r="E69" s="7">
         <v>45898</v>
       </c>
-      <c r="F69" s="7">
+      <c r="F69" s="6">
         <v>45898.326388888891</v>
       </c>
-      <c r="G69" s="7">
+      <c r="G69" s="6">
         <v>45898.339907407397</v>
       </c>
       <c r="H69">
@@ -12116,13 +12116,13 @@
       <c r="D70" t="s">
         <v>584</v>
       </c>
-      <c r="E70" s="8">
+      <c r="E70" s="7">
         <v>45901</v>
       </c>
-      <c r="F70" s="7">
+      <c r="F70" s="6">
         <v>45901.326388888891</v>
       </c>
-      <c r="G70" s="7">
+      <c r="G70" s="6">
         <v>45901.335289351853</v>
       </c>
       <c r="H70">
@@ -12145,13 +12145,13 @@
       <c r="D71" t="s">
         <v>584</v>
       </c>
-      <c r="E71" s="8">
+      <c r="E71" s="7">
         <v>45902</v>
       </c>
-      <c r="F71" s="7">
+      <c r="F71" s="6">
         <v>45902.326388888891</v>
       </c>
-      <c r="G71" s="7">
+      <c r="G71" s="6">
         <v>45902.343842592592</v>
       </c>
       <c r="H71">
@@ -12165,16 +12165,16 @@
       </c>
     </row>
     <row r="72" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="9" t="s">
+      <c r="A72" s="8" t="s">
         <v>895</v>
       </c>
       <c r="B72">
         <f>SUBTOTAL(3,B60:B71)</f>
         <v>12</v>
       </c>
-      <c r="E72" s="8"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
     </row>
     <row r="73" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
@@ -12186,13 +12186,13 @@
       <c r="D73" t="s">
         <v>584</v>
       </c>
-      <c r="E73" s="8">
+      <c r="E73" s="7">
         <v>45875</v>
       </c>
-      <c r="F73" s="7">
+      <c r="F73" s="6">
         <v>45875.326388888891</v>
       </c>
-      <c r="G73" s="7">
+      <c r="G73" s="6">
         <v>45875.409016203703</v>
       </c>
       <c r="H73">
@@ -12215,13 +12215,13 @@
       <c r="D74" t="s">
         <v>584</v>
       </c>
-      <c r="E74" s="8">
+      <c r="E74" s="7">
         <v>45876</v>
       </c>
-      <c r="F74" s="7">
+      <c r="F74" s="6">
         <v>45876.326388888891</v>
       </c>
-      <c r="G74" s="7">
+      <c r="G74" s="6">
         <v>45876.334409722222</v>
       </c>
       <c r="H74">
@@ -12244,13 +12244,13 @@
       <c r="D75" t="s">
         <v>584</v>
       </c>
-      <c r="E75" s="8">
+      <c r="E75" s="7">
         <v>45881</v>
       </c>
-      <c r="F75" s="7">
+      <c r="F75" s="6">
         <v>45881.326388888891</v>
       </c>
-      <c r="G75" s="7">
+      <c r="G75" s="6">
         <v>45881.333912037036</v>
       </c>
       <c r="H75">
@@ -12273,13 +12273,13 @@
       <c r="D76" t="s">
         <v>584</v>
       </c>
-      <c r="E76" s="8">
+      <c r="E76" s="7">
         <v>45890</v>
       </c>
-      <c r="F76" s="7">
+      <c r="F76" s="6">
         <v>45890.326388888891</v>
       </c>
-      <c r="G76" s="7">
+      <c r="G76" s="6">
         <v>45890.336770833332</v>
       </c>
       <c r="H76">
@@ -12302,13 +12302,13 @@
       <c r="D77" t="s">
         <v>584</v>
       </c>
-      <c r="E77" s="8">
+      <c r="E77" s="7">
         <v>45891</v>
       </c>
-      <c r="F77" s="7">
+      <c r="F77" s="6">
         <v>45891.326388888891</v>
       </c>
-      <c r="G77" s="7">
+      <c r="G77" s="6">
         <v>45891.334189814806</v>
       </c>
       <c r="H77">
@@ -12331,13 +12331,13 @@
       <c r="D78" t="s">
         <v>584</v>
       </c>
-      <c r="E78" s="8">
+      <c r="E78" s="7">
         <v>45898</v>
       </c>
-      <c r="F78" s="7">
+      <c r="F78" s="6">
         <v>45898.326388888891</v>
       </c>
-      <c r="G78" s="7">
+      <c r="G78" s="6">
         <v>45898.336388888893</v>
       </c>
       <c r="H78">
@@ -12360,13 +12360,13 @@
       <c r="D79" t="s">
         <v>584</v>
       </c>
-      <c r="E79" s="8">
+      <c r="E79" s="7">
         <v>45901</v>
       </c>
-      <c r="F79" s="7">
+      <c r="F79" s="6">
         <v>45901.326388888891</v>
       </c>
-      <c r="G79" s="7">
+      <c r="G79" s="6">
         <v>45901.34511574074</v>
       </c>
       <c r="H79">
@@ -12389,13 +12389,13 @@
       <c r="D80" t="s">
         <v>584</v>
       </c>
-      <c r="E80" s="8">
+      <c r="E80" s="7">
         <v>45902</v>
       </c>
-      <c r="F80" s="7">
+      <c r="F80" s="6">
         <v>45902.326388888891</v>
       </c>
-      <c r="G80" s="7">
+      <c r="G80" s="6">
         <v>45902.334340277783</v>
       </c>
       <c r="H80">
@@ -12418,13 +12418,13 @@
       <c r="D81" t="s">
         <v>584</v>
       </c>
-      <c r="E81" s="8">
+      <c r="E81" s="7">
         <v>45904</v>
       </c>
-      <c r="F81" s="7">
+      <c r="F81" s="6">
         <v>45904.326388888891</v>
       </c>
-      <c r="G81" s="7">
+      <c r="G81" s="6">
         <v>45904.334108796298</v>
       </c>
       <c r="H81">
@@ -12438,16 +12438,16 @@
       </c>
     </row>
     <row r="82" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="9" t="s">
+      <c r="A82" s="8" t="s">
         <v>896</v>
       </c>
       <c r="B82">
         <f>SUBTOTAL(3,B73:B81)</f>
         <v>9</v>
       </c>
-      <c r="E82" s="8"/>
-      <c r="F82" s="7"/>
-      <c r="G82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
     </row>
     <row r="83" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
@@ -12459,13 +12459,13 @@
       <c r="D83" t="s">
         <v>580</v>
       </c>
-      <c r="E83" s="8">
+      <c r="E83" s="7">
         <v>45890</v>
       </c>
-      <c r="F83" s="7">
+      <c r="F83" s="6">
         <v>45890.833333333343</v>
       </c>
-      <c r="G83" s="7">
+      <c r="G83" s="6">
         <v>45890.863796296297</v>
       </c>
       <c r="H83">
@@ -12479,16 +12479,16 @@
       </c>
     </row>
     <row r="84" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="9" t="s">
+      <c r="A84" s="8" t="s">
         <v>897</v>
       </c>
       <c r="B84">
         <f>SUBTOTAL(3,B83:B83)</f>
         <v>1</v>
       </c>
-      <c r="E84" s="8"/>
-      <c r="F84" s="7"/>
-      <c r="G84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
     </row>
     <row r="85" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
@@ -12500,13 +12500,13 @@
       <c r="D85" t="s">
         <v>580</v>
       </c>
-      <c r="E85" s="8">
+      <c r="E85" s="7">
         <v>45877</v>
       </c>
-      <c r="F85" s="7">
+      <c r="F85" s="6">
         <v>45877.243055555547</v>
       </c>
-      <c r="G85" s="7">
+      <c r="G85" s="6">
         <v>45877.250983796293</v>
       </c>
       <c r="H85">
@@ -12520,16 +12520,16 @@
       </c>
     </row>
     <row r="86" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="9" t="s">
+      <c r="A86" s="8" t="s">
         <v>898</v>
       </c>
       <c r="B86">
         <f>SUBTOTAL(3,B85:B85)</f>
         <v>1</v>
       </c>
-      <c r="E86" s="8"/>
-      <c r="F86" s="7"/>
-      <c r="G86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
     </row>
     <row r="87" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
@@ -12541,13 +12541,13 @@
       <c r="D87" t="s">
         <v>580</v>
       </c>
-      <c r="E87" s="8">
+      <c r="E87" s="7">
         <v>45880</v>
       </c>
-      <c r="F87" s="7">
+      <c r="F87" s="6">
         <v>45880.833333333343</v>
       </c>
-      <c r="G87" s="7">
+      <c r="G87" s="6">
         <v>45880.850486111107</v>
       </c>
       <c r="H87">
@@ -12561,16 +12561,16 @@
       </c>
     </row>
     <row r="88" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="9" t="s">
+      <c r="A88" s="8" t="s">
         <v>899</v>
       </c>
       <c r="B88">
         <f>SUBTOTAL(3,B87:B87)</f>
         <v>1</v>
       </c>
-      <c r="E88" s="8"/>
-      <c r="F88" s="7"/>
-      <c r="G88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
     </row>
     <row r="89" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
@@ -12582,13 +12582,13 @@
       <c r="D89" t="s">
         <v>584</v>
       </c>
-      <c r="E89" s="8">
+      <c r="E89" s="7">
         <v>45876</v>
       </c>
-      <c r="F89" s="7">
+      <c r="F89" s="6">
         <v>45876.326388888891</v>
       </c>
-      <c r="G89" s="7">
+      <c r="G89" s="6">
         <v>45876.337210648147</v>
       </c>
       <c r="H89">
@@ -12611,13 +12611,13 @@
       <c r="D90" t="s">
         <v>584</v>
       </c>
-      <c r="E90" s="8">
+      <c r="E90" s="7">
         <v>45877</v>
       </c>
-      <c r="F90" s="7">
+      <c r="F90" s="6">
         <v>45877.326388888891</v>
       </c>
-      <c r="G90" s="7">
+      <c r="G90" s="6">
         <v>45877.335451388892</v>
       </c>
       <c r="H90">
@@ -12640,13 +12640,13 @@
       <c r="D91" t="s">
         <v>584</v>
       </c>
-      <c r="E91" s="8">
+      <c r="E91" s="7">
         <v>45882</v>
       </c>
-      <c r="F91" s="7">
+      <c r="F91" s="6">
         <v>45882.326388888891</v>
       </c>
-      <c r="G91" s="7">
+      <c r="G91" s="6">
         <v>45882.337824074071</v>
       </c>
       <c r="H91">
@@ -12669,13 +12669,13 @@
       <c r="D92" t="s">
         <v>584</v>
       </c>
-      <c r="E92" s="8">
+      <c r="E92" s="7">
         <v>45889</v>
       </c>
-      <c r="F92" s="7">
+      <c r="F92" s="6">
         <v>45889.326388888891</v>
       </c>
-      <c r="G92" s="7">
+      <c r="G92" s="6">
         <v>45889.340138888889</v>
       </c>
       <c r="H92">
@@ -12698,13 +12698,13 @@
       <c r="D93" t="s">
         <v>584</v>
       </c>
-      <c r="E93" s="8">
+      <c r="E93" s="7">
         <v>45890</v>
       </c>
-      <c r="F93" s="7">
+      <c r="F93" s="6">
         <v>45890.326388888891</v>
       </c>
-      <c r="G93" s="7">
+      <c r="G93" s="6">
         <v>45890.340416666673</v>
       </c>
       <c r="H93">
@@ -12727,13 +12727,13 @@
       <c r="D94" t="s">
         <v>584</v>
       </c>
-      <c r="E94" s="8">
+      <c r="E94" s="7">
         <v>45891</v>
       </c>
-      <c r="F94" s="7">
+      <c r="F94" s="6">
         <v>45891.326388888891</v>
       </c>
-      <c r="G94" s="7">
+      <c r="G94" s="6">
         <v>45891.335949074077</v>
       </c>
       <c r="H94">
@@ -12756,13 +12756,13 @@
       <c r="D95" t="s">
         <v>584</v>
       </c>
-      <c r="E95" s="8">
+      <c r="E95" s="7">
         <v>45896</v>
       </c>
-      <c r="F95" s="7">
+      <c r="F95" s="6">
         <v>45896.326388888891</v>
       </c>
-      <c r="G95" s="7">
+      <c r="G95" s="6">
         <v>45896.334201388891</v>
       </c>
       <c r="H95">
@@ -12776,16 +12776,16 @@
       </c>
     </row>
     <row r="96" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="9" t="s">
+      <c r="A96" s="8" t="s">
         <v>900</v>
       </c>
       <c r="B96">
         <f>SUBTOTAL(3,B89:B95)</f>
         <v>7</v>
       </c>
-      <c r="E96" s="8"/>
-      <c r="F96" s="7"/>
-      <c r="G96" s="7"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
     </row>
     <row r="97" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
@@ -12797,13 +12797,13 @@
       <c r="D97" t="s">
         <v>593</v>
       </c>
-      <c r="E97" s="8">
+      <c r="E97" s="7">
         <v>45875</v>
       </c>
-      <c r="F97" s="7">
+      <c r="F97" s="6">
         <v>45875.326388888891</v>
       </c>
-      <c r="G97" s="7">
+      <c r="G97" s="6">
         <v>45875.341192129628</v>
       </c>
       <c r="H97">
@@ -12826,13 +12826,13 @@
       <c r="D98" t="s">
         <v>593</v>
       </c>
-      <c r="E98" s="8">
+      <c r="E98" s="7">
         <v>45882</v>
       </c>
-      <c r="F98" s="7">
+      <c r="F98" s="6">
         <v>45882.326388888891</v>
       </c>
-      <c r="G98" s="7">
+      <c r="G98" s="6">
         <v>45882.335694444453</v>
       </c>
       <c r="H98">
@@ -12846,16 +12846,16 @@
       </c>
     </row>
     <row r="99" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="9" t="s">
+      <c r="A99" s="8" t="s">
         <v>901</v>
       </c>
       <c r="B99">
         <f>SUBTOTAL(3,B97:B98)</f>
         <v>2</v>
       </c>
-      <c r="E99" s="8"/>
-      <c r="F99" s="7"/>
-      <c r="G99" s="7"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
     </row>
     <row r="100" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
@@ -12867,13 +12867,13 @@
       <c r="D100" t="s">
         <v>580</v>
       </c>
-      <c r="E100" s="8">
+      <c r="E100" s="7">
         <v>45887</v>
       </c>
-      <c r="F100" s="7">
+      <c r="F100" s="6">
         <v>45887.326388888891</v>
       </c>
-      <c r="G100" s="7">
+      <c r="G100" s="6">
         <v>45887.468368055554</v>
       </c>
       <c r="H100">
@@ -12887,16 +12887,16 @@
       </c>
     </row>
     <row r="101" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="9" t="s">
+      <c r="A101" s="8" t="s">
         <v>902</v>
       </c>
       <c r="B101">
         <f>SUBTOTAL(3,B100:B100)</f>
         <v>1</v>
       </c>
-      <c r="E101" s="8"/>
-      <c r="F101" s="7"/>
-      <c r="G101" s="7"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
     </row>
     <row r="102" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
@@ -12908,13 +12908,13 @@
       <c r="D102" t="s">
         <v>580</v>
       </c>
-      <c r="E102" s="8">
+      <c r="E102" s="7">
         <v>45875</v>
       </c>
-      <c r="F102" s="7">
+      <c r="F102" s="6">
         <v>45875.326388888891</v>
       </c>
-      <c r="G102" s="7">
+      <c r="G102" s="6">
         <v>45875.378668981481</v>
       </c>
       <c r="H102">
@@ -12928,16 +12928,16 @@
       </c>
     </row>
     <row r="103" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="9" t="s">
+      <c r="A103" s="8" t="s">
         <v>903</v>
       </c>
       <c r="B103">
         <f>SUBTOTAL(3,B102:B102)</f>
         <v>1</v>
       </c>
-      <c r="E103" s="8"/>
-      <c r="F103" s="7"/>
-      <c r="G103" s="7"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
     </row>
     <row r="104" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
@@ -12949,13 +12949,13 @@
       <c r="D104" t="s">
         <v>580</v>
       </c>
-      <c r="E104" s="8">
+      <c r="E104" s="7">
         <v>45880</v>
       </c>
-      <c r="F104" s="7">
+      <c r="F104" s="6">
         <v>45880.326388888891</v>
       </c>
-      <c r="G104" s="7">
+      <c r="G104" s="6">
         <v>45880.335011574083</v>
       </c>
       <c r="H104">
@@ -12969,16 +12969,16 @@
       </c>
     </row>
     <row r="105" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="9" t="s">
+      <c r="A105" s="8" t="s">
         <v>904</v>
       </c>
       <c r="B105">
         <f>SUBTOTAL(3,B104:B104)</f>
         <v>1</v>
       </c>
-      <c r="E105" s="8"/>
-      <c r="F105" s="7"/>
-      <c r="G105" s="7"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="6"/>
     </row>
     <row r="106" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
@@ -12990,13 +12990,13 @@
       <c r="D106" t="s">
         <v>580</v>
       </c>
-      <c r="E106" s="8">
+      <c r="E106" s="7">
         <v>45876</v>
       </c>
-      <c r="F106" s="7">
+      <c r="F106" s="6">
         <v>45876.833333333343</v>
       </c>
-      <c r="G106" s="7">
+      <c r="G106" s="6">
         <v>45876.843761574077</v>
       </c>
       <c r="H106">
@@ -13019,13 +13019,13 @@
       <c r="D107" t="s">
         <v>580</v>
       </c>
-      <c r="E107" s="8">
+      <c r="E107" s="7">
         <v>45898</v>
       </c>
-      <c r="F107" s="7">
+      <c r="F107" s="6">
         <v>45898.243055555547</v>
       </c>
-      <c r="G107" s="7">
+      <c r="G107" s="6">
         <v>45898.254189814812</v>
       </c>
       <c r="H107">
@@ -13039,16 +13039,16 @@
       </c>
     </row>
     <row r="108" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="9" t="s">
+      <c r="A108" s="8" t="s">
         <v>905</v>
       </c>
       <c r="B108">
         <f>SUBTOTAL(3,B106:B107)</f>
         <v>2</v>
       </c>
-      <c r="E108" s="8"/>
-      <c r="F108" s="7"/>
-      <c r="G108" s="7"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="6"/>
+      <c r="G108" s="6"/>
     </row>
     <row r="109" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
@@ -13060,13 +13060,13 @@
       <c r="D109" t="s">
         <v>592</v>
       </c>
-      <c r="E109" s="8">
+      <c r="E109" s="7">
         <v>45891</v>
       </c>
-      <c r="F109" s="7">
+      <c r="F109" s="6">
         <v>45891.326388888891</v>
       </c>
-      <c r="G109" s="7">
+      <c r="G109" s="6">
         <v>45891.353159722217</v>
       </c>
       <c r="H109">
@@ -13080,16 +13080,16 @@
       </c>
     </row>
     <row r="110" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="9" t="s">
+      <c r="A110" s="8" t="s">
         <v>906</v>
       </c>
       <c r="B110">
         <f>SUBTOTAL(3,B109:B109)</f>
         <v>1</v>
       </c>
-      <c r="E110" s="8"/>
-      <c r="F110" s="7"/>
-      <c r="G110" s="7"/>
+      <c r="E110" s="7"/>
+      <c r="F110" s="6"/>
+      <c r="G110" s="6"/>
     </row>
     <row r="111" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
@@ -13101,13 +13101,13 @@
       <c r="D111" t="s">
         <v>580</v>
       </c>
-      <c r="E111" s="8">
+      <c r="E111" s="7">
         <v>45880</v>
       </c>
-      <c r="F111" s="7">
+      <c r="F111" s="6">
         <v>45880.326388888891</v>
       </c>
-      <c r="G111" s="7">
+      <c r="G111" s="6">
         <v>45880.337465277778</v>
       </c>
       <c r="H111">
@@ -13121,16 +13121,16 @@
       </c>
     </row>
     <row r="112" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="9" t="s">
+      <c r="A112" s="8" t="s">
         <v>907</v>
       </c>
       <c r="B112">
         <f>SUBTOTAL(3,B111:B111)</f>
         <v>1</v>
       </c>
-      <c r="E112" s="8"/>
-      <c r="F112" s="7"/>
-      <c r="G112" s="7"/>
+      <c r="E112" s="7"/>
+      <c r="F112" s="6"/>
+      <c r="G112" s="6"/>
     </row>
     <row r="113" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
@@ -13142,13 +13142,13 @@
       <c r="D113" t="s">
         <v>584</v>
       </c>
-      <c r="E113" s="8">
+      <c r="E113" s="7">
         <v>45888</v>
       </c>
-      <c r="F113" s="7">
+      <c r="F113" s="6">
         <v>45888.326388888891</v>
       </c>
-      <c r="G113" s="7">
+      <c r="G113" s="6">
         <v>45888.437245370369</v>
       </c>
       <c r="H113">
@@ -13162,16 +13162,16 @@
       </c>
     </row>
     <row r="114" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="9" t="s">
+      <c r="A114" s="8" t="s">
         <v>908</v>
       </c>
       <c r="B114">
         <f>SUBTOTAL(3,B113:B113)</f>
         <v>1</v>
       </c>
-      <c r="E114" s="8"/>
-      <c r="F114" s="7"/>
-      <c r="G114" s="7"/>
+      <c r="E114" s="7"/>
+      <c r="F114" s="6"/>
+      <c r="G114" s="6"/>
     </row>
     <row r="115" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
@@ -13183,13 +13183,13 @@
       <c r="D115" t="s">
         <v>580</v>
       </c>
-      <c r="E115" s="8">
+      <c r="E115" s="7">
         <v>45880</v>
       </c>
-      <c r="F115" s="7">
+      <c r="F115" s="6">
         <v>45880.326388888891</v>
       </c>
-      <c r="G115" s="7">
+      <c r="G115" s="6">
         <v>45880.334085648137</v>
       </c>
       <c r="H115">
@@ -13212,13 +13212,13 @@
       <c r="D116" t="s">
         <v>580</v>
       </c>
-      <c r="E116" s="8">
+      <c r="E116" s="7">
         <v>45896</v>
       </c>
-      <c r="F116" s="7">
+      <c r="F116" s="6">
         <v>45896.326388888891</v>
       </c>
-      <c r="G116" s="7">
+      <c r="G116" s="6">
         <v>45896.345902777779</v>
       </c>
       <c r="H116">
@@ -13241,13 +13241,13 @@
       <c r="D117" t="s">
         <v>580</v>
       </c>
-      <c r="E117" s="8">
+      <c r="E117" s="7">
         <v>45898</v>
       </c>
-      <c r="F117" s="7">
+      <c r="F117" s="6">
         <v>45898.326388888891</v>
       </c>
-      <c r="G117" s="7">
+      <c r="G117" s="6">
         <v>45898.339178240742</v>
       </c>
       <c r="H117">
@@ -13261,16 +13261,16 @@
       </c>
     </row>
     <row r="118" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="9" t="s">
+      <c r="A118" s="8" t="s">
         <v>909</v>
       </c>
       <c r="B118">
         <f>SUBTOTAL(3,B115:B117)</f>
         <v>3</v>
       </c>
-      <c r="E118" s="8"/>
-      <c r="F118" s="7"/>
-      <c r="G118" s="7"/>
+      <c r="E118" s="7"/>
+      <c r="F118" s="6"/>
+      <c r="G118" s="6"/>
     </row>
     <row r="119" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
@@ -13282,13 +13282,13 @@
       <c r="D119" t="s">
         <v>584</v>
       </c>
-      <c r="E119" s="8">
+      <c r="E119" s="7">
         <v>45877</v>
       </c>
-      <c r="F119" s="7">
+      <c r="F119" s="6">
         <v>45877.326388888891</v>
       </c>
-      <c r="G119" s="7">
+      <c r="G119" s="6">
         <v>45877.338043981479</v>
       </c>
       <c r="H119">
@@ -13311,13 +13311,13 @@
       <c r="D120" t="s">
         <v>584</v>
       </c>
-      <c r="E120" s="8">
+      <c r="E120" s="7">
         <v>45888</v>
       </c>
-      <c r="F120" s="7">
+      <c r="F120" s="6">
         <v>45888.326388888891</v>
       </c>
-      <c r="G120" s="7">
+      <c r="G120" s="6">
         <v>45888.34646990741</v>
       </c>
       <c r="H120">
@@ -13340,13 +13340,13 @@
       <c r="D121" t="s">
         <v>584</v>
       </c>
-      <c r="E121" s="8">
+      <c r="E121" s="7">
         <v>45891</v>
       </c>
-      <c r="F121" s="7">
+      <c r="F121" s="6">
         <v>45891.326388888891</v>
       </c>
-      <c r="G121" s="7">
+      <c r="G121" s="6">
         <v>45891.349189814813</v>
       </c>
       <c r="H121">
@@ -13369,13 +13369,13 @@
       <c r="D122" t="s">
         <v>584</v>
       </c>
-      <c r="E122" s="8">
+      <c r="E122" s="7">
         <v>45895</v>
       </c>
-      <c r="F122" s="7">
+      <c r="F122" s="6">
         <v>45895.326388888891</v>
       </c>
-      <c r="G122" s="7">
+      <c r="G122" s="6">
         <v>45895.354270833333</v>
       </c>
       <c r="H122">
@@ -13398,13 +13398,13 @@
       <c r="D123" t="s">
         <v>584</v>
       </c>
-      <c r="E123" s="8">
+      <c r="E123" s="7">
         <v>45903</v>
       </c>
-      <c r="F123" s="7">
+      <c r="F123" s="6">
         <v>45903.326388888891</v>
       </c>
-      <c r="G123" s="7">
+      <c r="G123" s="6">
         <v>45903.345868055563</v>
       </c>
       <c r="H123">
@@ -13418,16 +13418,16 @@
       </c>
     </row>
     <row r="124" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="9" t="s">
+      <c r="A124" s="8" t="s">
         <v>910</v>
       </c>
       <c r="B124">
         <f>SUBTOTAL(3,B119:B123)</f>
         <v>5</v>
       </c>
-      <c r="E124" s="8"/>
-      <c r="F124" s="7"/>
-      <c r="G124" s="7"/>
+      <c r="E124" s="7"/>
+      <c r="F124" s="6"/>
+      <c r="G124" s="6"/>
     </row>
     <row r="125" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
@@ -13439,13 +13439,13 @@
       <c r="D125" t="s">
         <v>585</v>
       </c>
-      <c r="E125" s="8">
+      <c r="E125" s="7">
         <v>45887</v>
       </c>
-      <c r="F125" s="7">
+      <c r="F125" s="6">
         <v>45887.326388888891</v>
       </c>
-      <c r="G125" s="7">
+      <c r="G125" s="6">
         <v>45887.469050925924</v>
       </c>
       <c r="H125">
@@ -13459,16 +13459,16 @@
       </c>
     </row>
     <row r="126" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="9" t="s">
+      <c r="A126" s="8" t="s">
         <v>911</v>
       </c>
       <c r="B126">
         <f>SUBTOTAL(3,B125:B125)</f>
         <v>1</v>
       </c>
-      <c r="E126" s="8"/>
-      <c r="F126" s="7"/>
-      <c r="G126" s="7"/>
+      <c r="E126" s="7"/>
+      <c r="F126" s="6"/>
+      <c r="G126" s="6"/>
     </row>
     <row r="127" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
@@ -13480,13 +13480,13 @@
       <c r="D127" t="s">
         <v>584</v>
       </c>
-      <c r="E127" s="8">
+      <c r="E127" s="7">
         <v>45890</v>
       </c>
-      <c r="F127" s="7">
+      <c r="F127" s="6">
         <v>45890.326388888891</v>
       </c>
-      <c r="G127" s="7">
+      <c r="G127" s="6">
         <v>45890.337002314824</v>
       </c>
       <c r="H127">
@@ -13500,16 +13500,16 @@
       </c>
     </row>
     <row r="128" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="9" t="s">
+      <c r="A128" s="8" t="s">
         <v>912</v>
       </c>
       <c r="B128">
         <f>SUBTOTAL(3,B127:B127)</f>
         <v>1</v>
       </c>
-      <c r="E128" s="8"/>
-      <c r="F128" s="7"/>
-      <c r="G128" s="7"/>
+      <c r="E128" s="7"/>
+      <c r="F128" s="6"/>
+      <c r="G128" s="6"/>
     </row>
     <row r="129" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
@@ -13521,13 +13521,13 @@
       <c r="D129" t="s">
         <v>582</v>
       </c>
-      <c r="E129" s="8">
+      <c r="E129" s="7">
         <v>45902</v>
       </c>
-      <c r="F129" s="7">
+      <c r="F129" s="6">
         <v>45902.326388888891</v>
       </c>
-      <c r="G129" s="7">
+      <c r="G129" s="6">
         <v>45902.335324074083</v>
       </c>
       <c r="H129">
@@ -13541,16 +13541,16 @@
       </c>
     </row>
     <row r="130" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="9" t="s">
+      <c r="A130" s="8" t="s">
         <v>913</v>
       </c>
       <c r="B130">
         <f>SUBTOTAL(3,B129:B129)</f>
         <v>1</v>
       </c>
-      <c r="E130" s="8"/>
-      <c r="F130" s="7"/>
-      <c r="G130" s="7"/>
+      <c r="E130" s="7"/>
+      <c r="F130" s="6"/>
+      <c r="G130" s="6"/>
     </row>
     <row r="131" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
@@ -13562,13 +13562,13 @@
       <c r="D131" t="s">
         <v>584</v>
       </c>
-      <c r="E131" s="8">
+      <c r="E131" s="7">
         <v>45877</v>
       </c>
-      <c r="F131" s="7">
+      <c r="F131" s="6">
         <v>45877.326388888891</v>
       </c>
-      <c r="G131" s="7">
+      <c r="G131" s="6">
         <v>45877.335902777777</v>
       </c>
       <c r="H131">
@@ -13591,13 +13591,13 @@
       <c r="D132" t="s">
         <v>584</v>
       </c>
-      <c r="E132" s="8">
+      <c r="E132" s="7">
         <v>45880</v>
       </c>
-      <c r="F132" s="7">
+      <c r="F132" s="6">
         <v>45880.326388888891</v>
       </c>
-      <c r="G132" s="7">
+      <c r="G132" s="6">
         <v>45880.341481481482</v>
       </c>
       <c r="H132">
@@ -13620,13 +13620,13 @@
       <c r="D133" t="s">
         <v>584</v>
       </c>
-      <c r="E133" s="8">
+      <c r="E133" s="7">
         <v>45888</v>
       </c>
-      <c r="F133" s="7">
+      <c r="F133" s="6">
         <v>45888.326388888891</v>
       </c>
-      <c r="G133" s="7">
+      <c r="G133" s="6">
         <v>45888.335706018523</v>
       </c>
       <c r="H133">
@@ -13649,13 +13649,13 @@
       <c r="D134" t="s">
         <v>584</v>
       </c>
-      <c r="E134" s="8">
+      <c r="E134" s="7">
         <v>45890</v>
       </c>
-      <c r="F134" s="7">
+      <c r="F134" s="6">
         <v>45890.326388888891</v>
       </c>
-      <c r="G134" s="7">
+      <c r="G134" s="6">
         <v>45890.334872685176</v>
       </c>
       <c r="H134">
@@ -13678,13 +13678,13 @@
       <c r="D135" t="s">
         <v>584</v>
       </c>
-      <c r="E135" s="8">
+      <c r="E135" s="7">
         <v>45894</v>
       </c>
-      <c r="F135" s="7">
+      <c r="F135" s="6">
         <v>45894.326388888891</v>
       </c>
-      <c r="G135" s="7">
+      <c r="G135" s="6">
         <v>45894.335486111107</v>
       </c>
       <c r="H135">
@@ -13707,13 +13707,13 @@
       <c r="D136" t="s">
         <v>584</v>
       </c>
-      <c r="E136" s="8">
+      <c r="E136" s="7">
         <v>45902</v>
       </c>
-      <c r="F136" s="7">
+      <c r="F136" s="6">
         <v>45902.326388888891</v>
       </c>
-      <c r="G136" s="7">
+      <c r="G136" s="6">
         <v>45902.339826388888</v>
       </c>
       <c r="H136">
@@ -13736,13 +13736,13 @@
       <c r="D137" t="s">
         <v>584</v>
       </c>
-      <c r="E137" s="8">
+      <c r="E137" s="7">
         <v>45903</v>
       </c>
-      <c r="F137" s="7">
+      <c r="F137" s="6">
         <v>45903.326388888891</v>
       </c>
-      <c r="G137" s="7">
+      <c r="G137" s="6">
         <v>45903.333611111113</v>
       </c>
       <c r="H137">
@@ -13756,16 +13756,16 @@
       </c>
     </row>
     <row r="138" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="9" t="s">
+      <c r="A138" s="8" t="s">
         <v>914</v>
       </c>
       <c r="B138">
         <f>SUBTOTAL(3,B131:B137)</f>
         <v>7</v>
       </c>
-      <c r="E138" s="8"/>
-      <c r="F138" s="7"/>
-      <c r="G138" s="7"/>
+      <c r="E138" s="7"/>
+      <c r="F138" s="6"/>
+      <c r="G138" s="6"/>
     </row>
     <row r="139" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
@@ -13777,13 +13777,13 @@
       <c r="D139" t="s">
         <v>580</v>
       </c>
-      <c r="E139" s="8">
+      <c r="E139" s="7">
         <v>45890</v>
       </c>
-      <c r="F139" s="7">
+      <c r="F139" s="6">
         <v>45890.833333333343</v>
       </c>
-      <c r="G139" s="7">
+      <c r="G139" s="6">
         <v>45890.846655092602</v>
       </c>
       <c r="H139">
@@ -13797,16 +13797,16 @@
       </c>
     </row>
     <row r="140" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="9" t="s">
+      <c r="A140" s="8" t="s">
         <v>915</v>
       </c>
       <c r="B140">
         <f>SUBTOTAL(3,B139:B139)</f>
         <v>1</v>
       </c>
-      <c r="E140" s="8"/>
-      <c r="F140" s="7"/>
-      <c r="G140" s="7"/>
+      <c r="E140" s="7"/>
+      <c r="F140" s="6"/>
+      <c r="G140" s="6"/>
     </row>
     <row r="141" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
@@ -13818,13 +13818,13 @@
       <c r="D141" t="s">
         <v>585</v>
       </c>
-      <c r="E141" s="8">
+      <c r="E141" s="7">
         <v>45901</v>
       </c>
-      <c r="F141" s="7">
+      <c r="F141" s="6">
         <v>45901.326388888891</v>
       </c>
-      <c r="G141" s="7">
+      <c r="G141" s="6">
         <v>45901.409768518519</v>
       </c>
       <c r="H141">
@@ -13838,16 +13838,16 @@
       </c>
     </row>
     <row r="142" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="9" t="s">
+      <c r="A142" s="8" t="s">
         <v>916</v>
       </c>
       <c r="B142">
         <f>SUBTOTAL(3,B141:B141)</f>
         <v>1</v>
       </c>
-      <c r="E142" s="8"/>
-      <c r="F142" s="7"/>
-      <c r="G142" s="7"/>
+      <c r="E142" s="7"/>
+      <c r="F142" s="6"/>
+      <c r="G142" s="6"/>
     </row>
     <row r="143" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
@@ -13859,13 +13859,13 @@
       <c r="D143" t="s">
         <v>584</v>
       </c>
-      <c r="E143" s="8">
+      <c r="E143" s="7">
         <v>45890</v>
       </c>
-      <c r="F143" s="7">
+      <c r="F143" s="6">
         <v>45890.326388888891</v>
       </c>
-      <c r="G143" s="7">
+      <c r="G143" s="6">
         <v>45890.334803240738</v>
       </c>
       <c r="H143">
@@ -13879,16 +13879,16 @@
       </c>
     </row>
     <row r="144" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="9" t="s">
+      <c r="A144" s="8" t="s">
         <v>917</v>
       </c>
       <c r="B144">
         <f>SUBTOTAL(3,B143:B143)</f>
         <v>1</v>
       </c>
-      <c r="E144" s="8"/>
-      <c r="F144" s="7"/>
-      <c r="G144" s="7"/>
+      <c r="E144" s="7"/>
+      <c r="F144" s="6"/>
+      <c r="G144" s="6"/>
     </row>
     <row r="145" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
@@ -13900,13 +13900,13 @@
       <c r="D145" t="s">
         <v>580</v>
       </c>
-      <c r="E145" s="8">
+      <c r="E145" s="7">
         <v>45898</v>
       </c>
-      <c r="F145" s="7">
+      <c r="F145" s="6">
         <v>45898.239583333343</v>
       </c>
-      <c r="G145" s="7">
+      <c r="G145" s="6">
         <v>45898.248055555552</v>
       </c>
       <c r="H145">
@@ -13920,16 +13920,16 @@
       </c>
     </row>
     <row r="146" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="9" t="s">
+      <c r="A146" s="8" t="s">
         <v>918</v>
       </c>
       <c r="B146">
         <f>SUBTOTAL(3,B145:B145)</f>
         <v>1</v>
       </c>
-      <c r="E146" s="8"/>
-      <c r="F146" s="7"/>
-      <c r="G146" s="7"/>
+      <c r="E146" s="7"/>
+      <c r="F146" s="6"/>
+      <c r="G146" s="6"/>
     </row>
     <row r="147" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
@@ -13941,13 +13941,13 @@
       <c r="D147" t="s">
         <v>580</v>
       </c>
-      <c r="E147" s="8">
+      <c r="E147" s="7">
         <v>45880</v>
       </c>
-      <c r="F147" s="7">
+      <c r="F147" s="6">
         <v>45880.326388888891</v>
       </c>
-      <c r="G147" s="7">
+      <c r="G147" s="6">
         <v>45880.333923611113</v>
       </c>
       <c r="H147">
@@ -13970,13 +13970,13 @@
       <c r="D148" t="s">
         <v>580</v>
       </c>
-      <c r="E148" s="8">
+      <c r="E148" s="7">
         <v>45881</v>
       </c>
-      <c r="F148" s="7">
+      <c r="F148" s="6">
         <v>45881.326388888891</v>
       </c>
-      <c r="G148" s="7">
+      <c r="G148" s="6">
         <v>45881.351863425924</v>
       </c>
       <c r="H148">
@@ -13999,13 +13999,13 @@
       <c r="D149" t="s">
         <v>580</v>
       </c>
-      <c r="E149" s="8">
+      <c r="E149" s="7">
         <v>45904</v>
       </c>
-      <c r="F149" s="7">
+      <c r="F149" s="6">
         <v>45904.326388888891</v>
       </c>
-      <c r="G149" s="7">
+      <c r="G149" s="6">
         <v>45904.334537037037</v>
       </c>
       <c r="H149">
@@ -14019,16 +14019,16 @@
       </c>
     </row>
     <row r="150" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="9" t="s">
+      <c r="A150" s="8" t="s">
         <v>919</v>
       </c>
       <c r="B150">
         <f>SUBTOTAL(3,B147:B149)</f>
         <v>3</v>
       </c>
-      <c r="E150" s="8"/>
-      <c r="F150" s="7"/>
-      <c r="G150" s="7"/>
+      <c r="E150" s="7"/>
+      <c r="F150" s="6"/>
+      <c r="G150" s="6"/>
     </row>
     <row r="151" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
@@ -14040,13 +14040,13 @@
       <c r="D151" t="s">
         <v>584</v>
       </c>
-      <c r="E151" s="8">
+      <c r="E151" s="7">
         <v>45903</v>
       </c>
-      <c r="F151" s="7">
+      <c r="F151" s="6">
         <v>45903.326388888891</v>
       </c>
-      <c r="G151" s="7">
+      <c r="G151" s="6">
         <v>45903.333402777767</v>
       </c>
       <c r="H151">
@@ -14060,16 +14060,16 @@
       </c>
     </row>
     <row r="152" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="9" t="s">
+      <c r="A152" s="8" t="s">
         <v>920</v>
       </c>
       <c r="B152">
         <f>SUBTOTAL(3,B151:B151)</f>
         <v>1</v>
       </c>
-      <c r="E152" s="8"/>
-      <c r="F152" s="7"/>
-      <c r="G152" s="7"/>
+      <c r="E152" s="7"/>
+      <c r="F152" s="6"/>
+      <c r="G152" s="6"/>
     </row>
     <row r="153" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
@@ -14081,13 +14081,13 @@
       <c r="D153" t="s">
         <v>581</v>
       </c>
-      <c r="E153" s="8">
+      <c r="E153" s="7">
         <v>45902</v>
       </c>
-      <c r="F153" s="7">
+      <c r="F153" s="6">
         <v>45902.326388888891</v>
       </c>
-      <c r="G153" s="7">
+      <c r="G153" s="6">
         <v>45902.335046296299</v>
       </c>
       <c r="H153">
@@ -14101,16 +14101,16 @@
       </c>
     </row>
     <row r="154" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="9" t="s">
+      <c r="A154" s="8" t="s">
         <v>921</v>
       </c>
       <c r="B154">
         <f>SUBTOTAL(3,B153:B153)</f>
         <v>1</v>
       </c>
-      <c r="E154" s="8"/>
-      <c r="F154" s="7"/>
-      <c r="G154" s="7"/>
+      <c r="E154" s="7"/>
+      <c r="F154" s="6"/>
+      <c r="G154" s="6"/>
     </row>
     <row r="155" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
@@ -14122,13 +14122,13 @@
       <c r="D155" t="s">
         <v>585</v>
       </c>
-      <c r="E155" s="8">
+      <c r="E155" s="7">
         <v>45894</v>
       </c>
-      <c r="F155" s="7">
+      <c r="F155" s="6">
         <v>45894.326388888891</v>
       </c>
-      <c r="G155" s="7">
+      <c r="G155" s="6">
         <v>45894.335868055547</v>
       </c>
       <c r="H155">
@@ -14142,16 +14142,16 @@
       </c>
     </row>
     <row r="156" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="9" t="s">
+      <c r="A156" s="8" t="s">
         <v>922</v>
       </c>
       <c r="B156">
         <f>SUBTOTAL(3,B155:B155)</f>
         <v>1</v>
       </c>
-      <c r="E156" s="8"/>
-      <c r="F156" s="7"/>
-      <c r="G156" s="7"/>
+      <c r="E156" s="7"/>
+      <c r="F156" s="6"/>
+      <c r="G156" s="6"/>
     </row>
     <row r="157" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
@@ -14163,13 +14163,13 @@
       <c r="D157" t="s">
         <v>585</v>
       </c>
-      <c r="E157" s="8">
+      <c r="E157" s="7">
         <v>45882</v>
       </c>
-      <c r="F157" s="7">
+      <c r="F157" s="6">
         <v>45882.326388888891</v>
       </c>
-      <c r="G157" s="7">
+      <c r="G157" s="6">
         <v>45882.334664351853</v>
       </c>
       <c r="H157">
@@ -14183,16 +14183,16 @@
       </c>
     </row>
     <row r="158" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="9" t="s">
+      <c r="A158" s="8" t="s">
         <v>923</v>
       </c>
       <c r="B158">
         <f>SUBTOTAL(3,B157:B157)</f>
         <v>1</v>
       </c>
-      <c r="E158" s="8"/>
-      <c r="F158" s="7"/>
-      <c r="G158" s="7"/>
+      <c r="E158" s="7"/>
+      <c r="F158" s="6"/>
+      <c r="G158" s="6"/>
     </row>
     <row r="159" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
@@ -14204,13 +14204,13 @@
       <c r="D159" t="s">
         <v>584</v>
       </c>
-      <c r="E159" s="8">
+      <c r="E159" s="7">
         <v>45898</v>
       </c>
-      <c r="F159" s="7">
+      <c r="F159" s="6">
         <v>45898.326388888891</v>
       </c>
-      <c r="G159" s="7">
+      <c r="G159" s="6">
         <v>45898.340497685182</v>
       </c>
       <c r="H159">
@@ -14233,13 +14233,13 @@
       <c r="D160" t="s">
         <v>584</v>
       </c>
-      <c r="E160" s="8">
+      <c r="E160" s="7">
         <v>45903</v>
       </c>
-      <c r="F160" s="7">
+      <c r="F160" s="6">
         <v>45903.326388888891</v>
       </c>
-      <c r="G160" s="7">
+      <c r="G160" s="6">
         <v>45903.33734953704</v>
       </c>
       <c r="H160">
@@ -14253,16 +14253,16 @@
       </c>
     </row>
     <row r="161" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="9" t="s">
+      <c r="A161" s="8" t="s">
         <v>924</v>
       </c>
       <c r="B161">
         <f>SUBTOTAL(3,B159:B160)</f>
         <v>2</v>
       </c>
-      <c r="E161" s="8"/>
-      <c r="F161" s="7"/>
-      <c r="G161" s="7"/>
+      <c r="E161" s="7"/>
+      <c r="F161" s="6"/>
+      <c r="G161" s="6"/>
     </row>
     <row r="162" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
@@ -14274,13 +14274,13 @@
       <c r="D162" t="s">
         <v>580</v>
       </c>
-      <c r="E162" s="8">
+      <c r="E162" s="7">
         <v>45890</v>
       </c>
-      <c r="F162" s="7">
+      <c r="F162" s="6">
         <v>45890.833333333343</v>
       </c>
-      <c r="G162" s="7">
+      <c r="G162" s="6">
         <v>45890.864050925928</v>
       </c>
       <c r="H162">
@@ -14294,16 +14294,16 @@
       </c>
     </row>
     <row r="163" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="9" t="s">
+      <c r="A163" s="8" t="s">
         <v>925</v>
       </c>
       <c r="B163">
         <f>SUBTOTAL(3,B162:B162)</f>
         <v>1</v>
       </c>
-      <c r="E163" s="8"/>
-      <c r="F163" s="7"/>
-      <c r="G163" s="7"/>
+      <c r="E163" s="7"/>
+      <c r="F163" s="6"/>
+      <c r="G163" s="6"/>
     </row>
     <row r="164" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
@@ -14315,13 +14315,13 @@
       <c r="D164" t="s">
         <v>583</v>
       </c>
-      <c r="E164" s="8">
+      <c r="E164" s="7">
         <v>45894</v>
       </c>
-      <c r="F164" s="7">
+      <c r="F164" s="6">
         <v>45894.326388888891</v>
       </c>
-      <c r="G164" s="7">
+      <c r="G164" s="6">
         <v>45894.468009259261</v>
       </c>
       <c r="H164">
@@ -14335,16 +14335,16 @@
       </c>
     </row>
     <row r="165" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="9" t="s">
+      <c r="A165" s="8" t="s">
         <v>926</v>
       </c>
       <c r="B165">
         <f>SUBTOTAL(3,B164:B164)</f>
         <v>1</v>
       </c>
-      <c r="E165" s="8"/>
-      <c r="F165" s="7"/>
-      <c r="G165" s="7"/>
+      <c r="E165" s="7"/>
+      <c r="F165" s="6"/>
+      <c r="G165" s="6"/>
     </row>
     <row r="166" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
@@ -14356,13 +14356,13 @@
       <c r="D166" t="s">
         <v>580</v>
       </c>
-      <c r="E166" s="8">
+      <c r="E166" s="7">
         <v>45881</v>
       </c>
-      <c r="F166" s="7">
+      <c r="F166" s="6">
         <v>45881.326388888891</v>
       </c>
-      <c r="G166" s="7">
+      <c r="G166" s="6">
         <v>45881.355416666673</v>
       </c>
       <c r="H166">
@@ -14385,13 +14385,13 @@
       <c r="D167" t="s">
         <v>580</v>
       </c>
-      <c r="E167" s="8">
+      <c r="E167" s="7">
         <v>45887</v>
       </c>
-      <c r="F167" s="7">
+      <c r="F167" s="6">
         <v>45887.326388888891</v>
       </c>
-      <c r="G167" s="7">
+      <c r="G167" s="6">
         <v>45887.383032407408</v>
       </c>
       <c r="H167">
@@ -14414,13 +14414,13 @@
       <c r="D168" t="s">
         <v>580</v>
       </c>
-      <c r="E168" s="8">
+      <c r="E168" s="7">
         <v>45891</v>
       </c>
-      <c r="F168" s="7">
+      <c r="F168" s="6">
         <v>45891.326388888891</v>
       </c>
-      <c r="G168" s="7">
+      <c r="G168" s="6">
         <v>45891.336053240739</v>
       </c>
       <c r="H168">
@@ -14443,13 +14443,13 @@
       <c r="D169" t="s">
         <v>580</v>
       </c>
-      <c r="E169" s="8">
+      <c r="E169" s="7">
         <v>45894</v>
       </c>
-      <c r="F169" s="7">
+      <c r="F169" s="6">
         <v>45894.326388888891</v>
       </c>
-      <c r="G169" s="7">
+      <c r="G169" s="6">
         <v>45894.338356481479</v>
       </c>
       <c r="H169">
@@ -14472,13 +14472,13 @@
       <c r="D170" t="s">
         <v>580</v>
       </c>
-      <c r="E170" s="8">
+      <c r="E170" s="7">
         <v>45897</v>
       </c>
-      <c r="F170" s="7">
+      <c r="F170" s="6">
         <v>45897.326388888891</v>
       </c>
-      <c r="G170" s="7">
+      <c r="G170" s="6">
         <v>45897.337210648147</v>
       </c>
       <c r="H170">
@@ -14501,13 +14501,13 @@
       <c r="D171" t="s">
         <v>580</v>
       </c>
-      <c r="E171" s="8">
+      <c r="E171" s="7">
         <v>45902</v>
       </c>
-      <c r="F171" s="7">
+      <c r="F171" s="6">
         <v>45902.326388888891</v>
       </c>
-      <c r="G171" s="7">
+      <c r="G171" s="6">
         <v>45902.341053240743</v>
       </c>
       <c r="H171">
@@ -14521,16 +14521,16 @@
       </c>
     </row>
     <row r="172" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="9" t="s">
+      <c r="A172" s="8" t="s">
         <v>927</v>
       </c>
       <c r="B172">
         <f>SUBTOTAL(3,B166:B171)</f>
         <v>6</v>
       </c>
-      <c r="E172" s="8"/>
-      <c r="F172" s="7"/>
-      <c r="G172" s="7"/>
+      <c r="E172" s="7"/>
+      <c r="F172" s="6"/>
+      <c r="G172" s="6"/>
     </row>
     <row r="173" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
@@ -14542,13 +14542,13 @@
       <c r="D173" t="s">
         <v>581</v>
       </c>
-      <c r="E173" s="8">
+      <c r="E173" s="7">
         <v>45889</v>
       </c>
-      <c r="F173" s="7">
+      <c r="F173" s="6">
         <v>45889.326388888891</v>
       </c>
-      <c r="G173" s="7">
+      <c r="G173" s="6">
         <v>45889.336296296293</v>
       </c>
       <c r="H173">
@@ -14571,13 +14571,13 @@
       <c r="D174" t="s">
         <v>581</v>
       </c>
-      <c r="E174" s="8">
+      <c r="E174" s="7">
         <v>45890</v>
       </c>
-      <c r="F174" s="7">
+      <c r="F174" s="6">
         <v>45890.326388888891</v>
       </c>
-      <c r="G174" s="7">
+      <c r="G174" s="6">
         <v>45890.334560185183</v>
       </c>
       <c r="H174">
@@ -14600,13 +14600,13 @@
       <c r="D175" t="s">
         <v>581</v>
       </c>
-      <c r="E175" s="8">
+      <c r="E175" s="7">
         <v>45898</v>
       </c>
-      <c r="F175" s="7">
+      <c r="F175" s="6">
         <v>45898.326388888891</v>
       </c>
-      <c r="G175" s="7">
+      <c r="G175" s="6">
         <v>45898.337592592587</v>
       </c>
       <c r="H175">
@@ -14629,13 +14629,13 @@
       <c r="D176" t="s">
         <v>581</v>
       </c>
-      <c r="E176" s="8">
+      <c r="E176" s="7">
         <v>45902</v>
       </c>
-      <c r="F176" s="7">
+      <c r="F176" s="6">
         <v>45902.326388888891</v>
       </c>
-      <c r="G176" s="7">
+      <c r="G176" s="6">
         <v>45902.337106481478</v>
       </c>
       <c r="H176">
@@ -14649,16 +14649,16 @@
       </c>
     </row>
     <row r="177" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="9" t="s">
+      <c r="A177" s="8" t="s">
         <v>928</v>
       </c>
       <c r="B177">
         <f>SUBTOTAL(3,B173:B176)</f>
         <v>4</v>
       </c>
-      <c r="E177" s="8"/>
-      <c r="F177" s="7"/>
-      <c r="G177" s="7"/>
+      <c r="E177" s="7"/>
+      <c r="F177" s="6"/>
+      <c r="G177" s="6"/>
     </row>
     <row r="178" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
@@ -14670,13 +14670,13 @@
       <c r="D178" t="s">
         <v>580</v>
       </c>
-      <c r="E178" s="8">
+      <c r="E178" s="7">
         <v>45890</v>
       </c>
-      <c r="F178" s="7">
+      <c r="F178" s="6">
         <v>45890.833333333343</v>
       </c>
-      <c r="G178" s="7">
+      <c r="G178" s="6">
         <v>45890.860671296286</v>
       </c>
       <c r="H178">
@@ -14690,16 +14690,16 @@
       </c>
     </row>
     <row r="179" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="9" t="s">
+      <c r="A179" s="8" t="s">
         <v>929</v>
       </c>
       <c r="B179">
         <f>SUBTOTAL(3,B178:B178)</f>
         <v>1</v>
       </c>
-      <c r="E179" s="8"/>
-      <c r="F179" s="7"/>
-      <c r="G179" s="7"/>
+      <c r="E179" s="7"/>
+      <c r="F179" s="6"/>
+      <c r="G179" s="6"/>
     </row>
     <row r="180" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
@@ -14711,13 +14711,13 @@
       <c r="D180" t="s">
         <v>584</v>
       </c>
-      <c r="E180" s="8">
+      <c r="E180" s="7">
         <v>45876</v>
       </c>
-      <c r="F180" s="7">
+      <c r="F180" s="6">
         <v>45876.326388888891</v>
       </c>
-      <c r="G180" s="7">
+      <c r="G180" s="6">
         <v>45876.340624999997</v>
       </c>
       <c r="H180">
@@ -14740,13 +14740,13 @@
       <c r="D181" t="s">
         <v>584</v>
       </c>
-      <c r="E181" s="8">
+      <c r="E181" s="7">
         <v>45887</v>
       </c>
-      <c r="F181" s="7">
+      <c r="F181" s="6">
         <v>45887.326388888891</v>
       </c>
-      <c r="G181" s="7">
+      <c r="G181" s="6">
         <v>45887.337430555563</v>
       </c>
       <c r="H181">
@@ -14769,13 +14769,13 @@
       <c r="D182" t="s">
         <v>584</v>
       </c>
-      <c r="E182" s="8">
+      <c r="E182" s="7">
         <v>45889</v>
       </c>
-      <c r="F182" s="7">
+      <c r="F182" s="6">
         <v>45889.326388888891</v>
       </c>
-      <c r="G182" s="7">
+      <c r="G182" s="6">
         <v>45889.335289351853</v>
       </c>
       <c r="H182">
@@ -14798,13 +14798,13 @@
       <c r="D183" t="s">
         <v>584</v>
       </c>
-      <c r="E183" s="8">
+      <c r="E183" s="7">
         <v>45890</v>
       </c>
-      <c r="F183" s="7">
+      <c r="F183" s="6">
         <v>45890.326388888891</v>
       </c>
-      <c r="G183" s="7">
+      <c r="G183" s="6">
         <v>45890.336157407408</v>
       </c>
       <c r="H183">
@@ -14827,13 +14827,13 @@
       <c r="D184" t="s">
         <v>584</v>
       </c>
-      <c r="E184" s="8">
+      <c r="E184" s="7">
         <v>45895</v>
       </c>
-      <c r="F184" s="7">
+      <c r="F184" s="6">
         <v>45895.326388888891</v>
       </c>
-      <c r="G184" s="7">
+      <c r="G184" s="6">
         <v>45895.342453703714</v>
       </c>
       <c r="H184">
@@ -14856,13 +14856,13 @@
       <c r="D185" t="s">
         <v>584</v>
       </c>
-      <c r="E185" s="8">
+      <c r="E185" s="7">
         <v>45896</v>
       </c>
-      <c r="F185" s="7">
+      <c r="F185" s="6">
         <v>45896.326388888891</v>
       </c>
-      <c r="G185" s="7">
+      <c r="G185" s="6">
         <v>45896.343831018523</v>
       </c>
       <c r="H185">
@@ -14885,13 +14885,13 @@
       <c r="D186" t="s">
         <v>584</v>
       </c>
-      <c r="E186" s="8">
+      <c r="E186" s="7">
         <v>45904</v>
       </c>
-      <c r="F186" s="7">
+      <c r="F186" s="6">
         <v>45904.326388888891</v>
       </c>
-      <c r="G186" s="7">
+      <c r="G186" s="6">
         <v>45904.338425925933</v>
       </c>
       <c r="H186">
@@ -14905,16 +14905,16 @@
       </c>
     </row>
     <row r="187" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="9" t="s">
+      <c r="A187" s="8" t="s">
         <v>930</v>
       </c>
       <c r="B187">
         <f>SUBTOTAL(3,B180:B186)</f>
         <v>7</v>
       </c>
-      <c r="E187" s="8"/>
-      <c r="F187" s="7"/>
-      <c r="G187" s="7"/>
+      <c r="E187" s="7"/>
+      <c r="F187" s="6"/>
+      <c r="G187" s="6"/>
     </row>
     <row r="188" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
@@ -14926,13 +14926,13 @@
       <c r="D188" t="s">
         <v>580</v>
       </c>
-      <c r="E188" s="8">
+      <c r="E188" s="7">
         <v>45875</v>
       </c>
-      <c r="F188" s="7">
+      <c r="F188" s="6">
         <v>45875.833333333343</v>
       </c>
-      <c r="G188" s="7">
+      <c r="G188" s="6">
         <v>45875.88008101852</v>
       </c>
       <c r="H188">
@@ -14946,16 +14946,16 @@
       </c>
     </row>
     <row r="189" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="9" t="s">
+      <c r="A189" s="8" t="s">
         <v>931</v>
       </c>
       <c r="B189">
         <f>SUBTOTAL(3,B188:B188)</f>
         <v>1</v>
       </c>
-      <c r="E189" s="8"/>
-      <c r="F189" s="7"/>
-      <c r="G189" s="7"/>
+      <c r="E189" s="7"/>
+      <c r="F189" s="6"/>
+      <c r="G189" s="6"/>
     </row>
     <row r="190" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
@@ -14967,13 +14967,13 @@
       <c r="D190" t="s">
         <v>584</v>
       </c>
-      <c r="E190" s="8">
+      <c r="E190" s="7">
         <v>45897</v>
       </c>
-      <c r="F190" s="7">
+      <c r="F190" s="6">
         <v>45897.326388888891</v>
       </c>
-      <c r="G190" s="7">
+      <c r="G190" s="6">
         <v>45897.340138888889</v>
       </c>
       <c r="H190">
@@ -14987,289 +14987,289 @@
       </c>
     </row>
     <row r="191" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="9" t="s">
+      <c r="A191" s="8" t="s">
         <v>932</v>
       </c>
       <c r="B191">
         <f>SUBTOTAL(3,B190:B190)</f>
         <v>1</v>
       </c>
-      <c r="E191" s="8"/>
-      <c r="F191" s="7"/>
-      <c r="G191" s="7"/>
+      <c r="E191" s="7"/>
+      <c r="F191" s="6"/>
+      <c r="G191" s="6"/>
     </row>
     <row r="192" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B192" s="10" t="s">
+      <c r="B192" s="9" t="s">
         <v>827</v>
       </c>
-      <c r="C192" s="10">
+      <c r="C192" s="9">
         <v>201231477</v>
       </c>
-      <c r="D192" s="10" t="s">
+      <c r="D192" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="E192" s="11">
+      <c r="E192" s="10">
         <v>45887</v>
       </c>
-      <c r="F192" s="12">
+      <c r="F192" s="11">
         <v>45887.326388888891</v>
       </c>
-      <c r="G192" s="12">
+      <c r="G192" s="11">
         <v>45887.405844907407</v>
       </c>
-      <c r="H192" s="10">
+      <c r="H192" s="9">
         <v>-114.4166666666667</v>
       </c>
-      <c r="I192" s="10" t="s">
-        <v>865</v>
-      </c>
-      <c r="J192" s="10" t="s">
+      <c r="I192" s="9" t="s">
+        <v>865</v>
+      </c>
+      <c r="J192" s="9" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="193" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B193" s="10" t="s">
+      <c r="B193" s="9" t="s">
         <v>827</v>
       </c>
-      <c r="C193" s="10">
+      <c r="C193" s="9">
         <v>201231477</v>
       </c>
-      <c r="D193" s="10" t="s">
+      <c r="D193" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="E193" s="11">
+      <c r="E193" s="10">
         <v>45888</v>
       </c>
-      <c r="F193" s="12">
+      <c r="F193" s="11">
         <v>45888.326388888891</v>
       </c>
-      <c r="G193" s="12">
+      <c r="G193" s="11">
         <v>45888.408310185187</v>
       </c>
-      <c r="H193" s="10">
+      <c r="H193" s="9">
         <v>-117.9666666666667</v>
       </c>
-      <c r="I193" s="10" t="s">
-        <v>865</v>
-      </c>
-      <c r="J193" s="10" t="s">
+      <c r="I193" s="9" t="s">
+        <v>865</v>
+      </c>
+      <c r="J193" s="9" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="194" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B194" s="10" t="s">
+      <c r="B194" s="9" t="s">
         <v>827</v>
       </c>
-      <c r="C194" s="10">
+      <c r="C194" s="9">
         <v>201231477</v>
       </c>
-      <c r="D194" s="10" t="s">
+      <c r="D194" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="E194" s="11">
+      <c r="E194" s="10">
         <v>45889</v>
       </c>
-      <c r="F194" s="12">
+      <c r="F194" s="11">
         <v>45889.326388888891</v>
       </c>
-      <c r="G194" s="12">
+      <c r="G194" s="11">
         <v>45889.406168981477</v>
       </c>
-      <c r="H194" s="10">
+      <c r="H194" s="9">
         <v>-114.8833333333333</v>
       </c>
-      <c r="I194" s="10" t="s">
-        <v>865</v>
-      </c>
-      <c r="J194" s="10" t="s">
+      <c r="I194" s="9" t="s">
+        <v>865</v>
+      </c>
+      <c r="J194" s="9" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="195" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B195" s="10" t="s">
+      <c r="B195" s="9" t="s">
         <v>827</v>
       </c>
-      <c r="C195" s="10">
+      <c r="C195" s="9">
         <v>201231477</v>
       </c>
-      <c r="D195" s="10" t="s">
+      <c r="D195" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="E195" s="11">
+      <c r="E195" s="10">
         <v>45890</v>
       </c>
-      <c r="F195" s="12">
+      <c r="F195" s="11">
         <v>45890.326388888891</v>
       </c>
-      <c r="G195" s="12">
+      <c r="G195" s="11">
         <v>45890.406898148147</v>
       </c>
-      <c r="H195" s="10">
+      <c r="H195" s="9">
         <v>-115.93333333333329</v>
       </c>
-      <c r="I195" s="10" t="s">
-        <v>865</v>
-      </c>
-      <c r="J195" s="10" t="s">
+      <c r="I195" s="9" t="s">
+        <v>865</v>
+      </c>
+      <c r="J195" s="9" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="196" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B196" s="10" t="s">
+      <c r="B196" s="9" t="s">
         <v>827</v>
       </c>
-      <c r="C196" s="10">
+      <c r="C196" s="9">
         <v>201231477</v>
       </c>
-      <c r="D196" s="10" t="s">
+      <c r="D196" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="E196" s="11">
+      <c r="E196" s="10">
         <v>45891</v>
       </c>
-      <c r="F196" s="12">
+      <c r="F196" s="11">
         <v>45891.326388888891</v>
       </c>
-      <c r="G196" s="12">
+      <c r="G196" s="11">
         <v>45891.369479166657</v>
       </c>
-      <c r="H196" s="10">
+      <c r="H196" s="9">
         <v>-62.05</v>
       </c>
-      <c r="I196" s="10" t="s">
-        <v>865</v>
-      </c>
-      <c r="J196" s="10" t="s">
+      <c r="I196" s="9" t="s">
+        <v>865</v>
+      </c>
+      <c r="J196" s="9" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="197" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B197" s="10" t="s">
+      <c r="B197" s="9" t="s">
         <v>827</v>
       </c>
-      <c r="C197" s="10">
+      <c r="C197" s="9">
         <v>201231477</v>
       </c>
-      <c r="D197" s="10" t="s">
+      <c r="D197" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="E197" s="11">
+      <c r="E197" s="10">
         <v>45901</v>
       </c>
-      <c r="F197" s="12">
+      <c r="F197" s="11">
         <v>45901.326388888891</v>
       </c>
-      <c r="G197" s="12">
+      <c r="G197" s="11">
         <v>45901.406597222223</v>
       </c>
-      <c r="H197" s="10">
+      <c r="H197" s="9">
         <v>-115.5</v>
       </c>
-      <c r="I197" s="10" t="s">
-        <v>865</v>
-      </c>
-      <c r="J197" s="10" t="s">
+      <c r="I197" s="9" t="s">
+        <v>865</v>
+      </c>
+      <c r="J197" s="9" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="198" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B198" s="10" t="s">
+      <c r="B198" s="9" t="s">
         <v>827</v>
       </c>
-      <c r="C198" s="10">
+      <c r="C198" s="9">
         <v>201231477</v>
       </c>
-      <c r="D198" s="10" t="s">
+      <c r="D198" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="E198" s="11">
+      <c r="E198" s="10">
         <v>45902</v>
       </c>
-      <c r="F198" s="12">
+      <c r="F198" s="11">
         <v>45902.326388888891</v>
       </c>
-      <c r="G198" s="12">
+      <c r="G198" s="11">
         <v>45902.416319444441</v>
       </c>
-      <c r="H198" s="10">
+      <c r="H198" s="9">
         <v>-129.5</v>
       </c>
-      <c r="I198" s="10" t="s">
-        <v>865</v>
-      </c>
-      <c r="J198" s="10" t="s">
+      <c r="I198" s="9" t="s">
+        <v>865</v>
+      </c>
+      <c r="J198" s="9" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="199" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B199" s="10" t="s">
+      <c r="B199" s="9" t="s">
         <v>827</v>
       </c>
-      <c r="C199" s="10">
+      <c r="C199" s="9">
         <v>201231477</v>
       </c>
-      <c r="D199" s="10" t="s">
+      <c r="D199" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="E199" s="11">
+      <c r="E199" s="10">
         <v>45903</v>
       </c>
-      <c r="F199" s="12">
+      <c r="F199" s="11">
         <v>45903.326388888891</v>
       </c>
-      <c r="G199" s="12">
+      <c r="G199" s="11">
         <v>45903.406851851847</v>
       </c>
-      <c r="H199" s="10">
+      <c r="H199" s="9">
         <v>-115.8666666666667</v>
       </c>
-      <c r="I199" s="10" t="s">
-        <v>865</v>
-      </c>
-      <c r="J199" s="10" t="s">
+      <c r="I199" s="9" t="s">
+        <v>865</v>
+      </c>
+      <c r="J199" s="9" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="200" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B200" s="10" t="s">
+      <c r="B200" s="9" t="s">
         <v>827</v>
       </c>
-      <c r="C200" s="10">
+      <c r="C200" s="9">
         <v>201231477</v>
       </c>
-      <c r="D200" s="10" t="s">
+      <c r="D200" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="E200" s="11">
+      <c r="E200" s="10">
         <v>45904</v>
       </c>
-      <c r="F200" s="12">
+      <c r="F200" s="11">
         <v>45904.326388888891</v>
       </c>
-      <c r="G200" s="12">
+      <c r="G200" s="11">
         <v>45904.415671296287</v>
       </c>
-      <c r="H200" s="10">
+      <c r="H200" s="9">
         <v>-128.56666666666669</v>
       </c>
-      <c r="I200" s="10" t="s">
-        <v>865</v>
-      </c>
-      <c r="J200" s="10" t="s">
+      <c r="I200" s="9" t="s">
+        <v>865</v>
+      </c>
+      <c r="J200" s="9" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="201" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="9" t="s">
+      <c r="A201" s="8" t="s">
         <v>933</v>
       </c>
       <c r="B201">
         <f>SUBTOTAL(3,B192:B200)</f>
         <v>9</v>
       </c>
-      <c r="E201" s="8"/>
-      <c r="F201" s="7"/>
-      <c r="G201" s="7"/>
+      <c r="E201" s="7"/>
+      <c r="F201" s="6"/>
+      <c r="G201" s="6"/>
     </row>
     <row r="202" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
@@ -15281,13 +15281,13 @@
       <c r="D202" t="s">
         <v>580</v>
       </c>
-      <c r="E202" s="8">
+      <c r="E202" s="7">
         <v>45904</v>
       </c>
-      <c r="F202" s="7">
+      <c r="F202" s="6">
         <v>45904.326388888891</v>
       </c>
-      <c r="G202" s="7">
+      <c r="G202" s="6">
         <v>45904.334189814806</v>
       </c>
       <c r="H202">
@@ -15301,16 +15301,16 @@
       </c>
     </row>
     <row r="203" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="9" t="s">
+      <c r="A203" s="8" t="s">
         <v>934</v>
       </c>
       <c r="B203">
         <f>SUBTOTAL(3,B202:B202)</f>
         <v>1</v>
       </c>
-      <c r="E203" s="8"/>
-      <c r="F203" s="7"/>
-      <c r="G203" s="7"/>
+      <c r="E203" s="7"/>
+      <c r="F203" s="6"/>
+      <c r="G203" s="6"/>
     </row>
     <row r="204" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B204" t="s">
@@ -15322,13 +15322,13 @@
       <c r="D204" t="s">
         <v>584</v>
       </c>
-      <c r="E204" s="8">
+      <c r="E204" s="7">
         <v>45875</v>
       </c>
-      <c r="F204" s="7">
+      <c r="F204" s="6">
         <v>45875.326388888891</v>
       </c>
-      <c r="G204" s="7">
+      <c r="G204" s="6">
         <v>45875.341747685183</v>
       </c>
       <c r="H204">
@@ -15351,13 +15351,13 @@
       <c r="D205" t="s">
         <v>584</v>
       </c>
-      <c r="E205" s="8">
+      <c r="E205" s="7">
         <v>45876</v>
       </c>
-      <c r="F205" s="7">
+      <c r="F205" s="6">
         <v>45876.326388888891</v>
       </c>
-      <c r="G205" s="7">
+      <c r="G205" s="6">
         <v>45876.336805555547</v>
       </c>
       <c r="H205">
@@ -15380,13 +15380,13 @@
       <c r="D206" t="s">
         <v>584</v>
       </c>
-      <c r="E206" s="8">
+      <c r="E206" s="7">
         <v>45877</v>
       </c>
-      <c r="F206" s="7">
+      <c r="F206" s="6">
         <v>45877.326388888891</v>
       </c>
-      <c r="G206" s="7">
+      <c r="G206" s="6">
         <v>45877.333715277768</v>
       </c>
       <c r="H206">
@@ -15409,13 +15409,13 @@
       <c r="D207" t="s">
         <v>584</v>
       </c>
-      <c r="E207" s="8">
+      <c r="E207" s="7">
         <v>45880</v>
       </c>
-      <c r="F207" s="7">
+      <c r="F207" s="6">
         <v>45880.326388888891</v>
       </c>
-      <c r="G207" s="7">
+      <c r="G207" s="6">
         <v>45880.344548611109</v>
       </c>
       <c r="H207">
@@ -15438,13 +15438,13 @@
       <c r="D208" t="s">
         <v>584</v>
       </c>
-      <c r="E208" s="8">
+      <c r="E208" s="7">
         <v>45881</v>
       </c>
-      <c r="F208" s="7">
+      <c r="F208" s="6">
         <v>45881.326388888891</v>
       </c>
-      <c r="G208" s="7">
+      <c r="G208" s="6">
         <v>45881.338923611111</v>
       </c>
       <c r="H208">
@@ -15467,13 +15467,13 @@
       <c r="D209" t="s">
         <v>584</v>
       </c>
-      <c r="E209" s="8">
+      <c r="E209" s="7">
         <v>45882</v>
       </c>
-      <c r="F209" s="7">
+      <c r="F209" s="6">
         <v>45882.326388888891</v>
       </c>
-      <c r="G209" s="7">
+      <c r="G209" s="6">
         <v>45882.340127314812</v>
       </c>
       <c r="H209">
@@ -15496,13 +15496,13 @@
       <c r="D210" t="s">
         <v>584</v>
       </c>
-      <c r="E210" s="8">
+      <c r="E210" s="7">
         <v>45883</v>
       </c>
-      <c r="F210" s="7">
+      <c r="F210" s="6">
         <v>45883.326388888891</v>
       </c>
-      <c r="G210" s="7">
+      <c r="G210" s="6">
         <v>45883.354988425926</v>
       </c>
       <c r="H210">
@@ -15525,13 +15525,13 @@
       <c r="D211" t="s">
         <v>584</v>
       </c>
-      <c r="E211" s="8">
+      <c r="E211" s="7">
         <v>45887</v>
       </c>
-      <c r="F211" s="7">
+      <c r="F211" s="6">
         <v>45887.326388888891</v>
       </c>
-      <c r="G211" s="7">
+      <c r="G211" s="6">
         <v>45887.348587962973</v>
       </c>
       <c r="H211">
@@ -15554,13 +15554,13 @@
       <c r="D212" t="s">
         <v>584</v>
       </c>
-      <c r="E212" s="8">
+      <c r="E212" s="7">
         <v>45888</v>
       </c>
-      <c r="F212" s="7">
+      <c r="F212" s="6">
         <v>45888.326388888891</v>
       </c>
-      <c r="G212" s="7">
+      <c r="G212" s="6">
         <v>45888.3362037037</v>
       </c>
       <c r="H212">
@@ -15583,13 +15583,13 @@
       <c r="D213" t="s">
         <v>584</v>
       </c>
-      <c r="E213" s="8">
+      <c r="E213" s="7">
         <v>45889</v>
       </c>
-      <c r="F213" s="7">
+      <c r="F213" s="6">
         <v>45889.326388888891</v>
       </c>
-      <c r="G213" s="7">
+      <c r="G213" s="6">
         <v>45889.334074074082</v>
       </c>
       <c r="H213">
@@ -15612,13 +15612,13 @@
       <c r="D214" t="s">
         <v>584</v>
       </c>
-      <c r="E214" s="8">
+      <c r="E214" s="7">
         <v>45890</v>
       </c>
-      <c r="F214" s="7">
+      <c r="F214" s="6">
         <v>45890.326388888891</v>
       </c>
-      <c r="G214" s="7">
+      <c r="G214" s="6">
         <v>45890.33494212963</v>
       </c>
       <c r="H214">
@@ -15641,13 +15641,13 @@
       <c r="D215" t="s">
         <v>584</v>
       </c>
-      <c r="E215" s="8">
+      <c r="E215" s="7">
         <v>45891</v>
       </c>
-      <c r="F215" s="7">
+      <c r="F215" s="6">
         <v>45891.326388888891</v>
       </c>
-      <c r="G215" s="7">
+      <c r="G215" s="6">
         <v>45891.345659722218</v>
       </c>
       <c r="H215">
@@ -15670,13 +15670,13 @@
       <c r="D216" t="s">
         <v>584</v>
       </c>
-      <c r="E216" s="8">
+      <c r="E216" s="7">
         <v>45894</v>
       </c>
-      <c r="F216" s="7">
+      <c r="F216" s="6">
         <v>45894.326388888891</v>
       </c>
-      <c r="G216" s="7">
+      <c r="G216" s="6">
         <v>45894.352662037039</v>
       </c>
       <c r="H216">
@@ -15699,13 +15699,13 @@
       <c r="D217" t="s">
         <v>584</v>
       </c>
-      <c r="E217" s="8">
+      <c r="E217" s="7">
         <v>45895</v>
       </c>
-      <c r="F217" s="7">
+      <c r="F217" s="6">
         <v>45895.326388888891</v>
       </c>
-      <c r="G217" s="7">
+      <c r="G217" s="6">
         <v>45895.343321759261</v>
       </c>
       <c r="H217">
@@ -15728,13 +15728,13 @@
       <c r="D218" t="s">
         <v>584</v>
       </c>
-      <c r="E218" s="8">
+      <c r="E218" s="7">
         <v>45896</v>
       </c>
-      <c r="F218" s="7">
+      <c r="F218" s="6">
         <v>45896.326388888891</v>
       </c>
-      <c r="G218" s="7">
+      <c r="G218" s="6">
         <v>45896.352071759262</v>
       </c>
       <c r="H218">
@@ -15757,13 +15757,13 @@
       <c r="D219" t="s">
         <v>584</v>
       </c>
-      <c r="E219" s="8">
+      <c r="E219" s="7">
         <v>45898</v>
       </c>
-      <c r="F219" s="7">
+      <c r="F219" s="6">
         <v>45898.326388888891</v>
       </c>
-      <c r="G219" s="7">
+      <c r="G219" s="6">
         <v>45898.338090277779</v>
       </c>
       <c r="H219">
@@ -15786,13 +15786,13 @@
       <c r="D220" t="s">
         <v>584</v>
       </c>
-      <c r="E220" s="8">
+      <c r="E220" s="7">
         <v>45901</v>
       </c>
-      <c r="F220" s="7">
+      <c r="F220" s="6">
         <v>45901.326388888891</v>
       </c>
-      <c r="G220" s="7">
+      <c r="G220" s="6">
         <v>45901.347314814811</v>
       </c>
       <c r="H220">
@@ -15815,13 +15815,13 @@
       <c r="D221" t="s">
         <v>584</v>
       </c>
-      <c r="E221" s="8">
+      <c r="E221" s="7">
         <v>45902</v>
       </c>
-      <c r="F221" s="7">
+      <c r="F221" s="6">
         <v>45902.326388888891</v>
       </c>
-      <c r="G221" s="7">
+      <c r="G221" s="6">
         <v>45902.353148148148</v>
       </c>
       <c r="H221">
@@ -15844,13 +15844,13 @@
       <c r="D222" t="s">
         <v>584</v>
       </c>
-      <c r="E222" s="8">
+      <c r="E222" s="7">
         <v>45903</v>
       </c>
-      <c r="F222" s="7">
+      <c r="F222" s="6">
         <v>45903.326388888891</v>
       </c>
-      <c r="G222" s="7">
+      <c r="G222" s="6">
         <v>45903.342974537038</v>
       </c>
       <c r="H222">
@@ -15873,13 +15873,13 @@
       <c r="D223" t="s">
         <v>584</v>
       </c>
-      <c r="E223" s="8">
+      <c r="E223" s="7">
         <v>45904</v>
       </c>
-      <c r="F223" s="7">
+      <c r="F223" s="6">
         <v>45904.326388888891</v>
       </c>
-      <c r="G223" s="7">
+      <c r="G223" s="6">
         <v>45904.348680555559</v>
       </c>
       <c r="H223">
@@ -15893,16 +15893,16 @@
       </c>
     </row>
     <row r="224" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="9" t="s">
+      <c r="A224" s="8" t="s">
         <v>935</v>
       </c>
       <c r="B224">
         <f>SUBTOTAL(3,B204:B223)</f>
         <v>20</v>
       </c>
-      <c r="E224" s="8"/>
-      <c r="F224" s="7"/>
-      <c r="G224" s="7"/>
+      <c r="E224" s="7"/>
+      <c r="F224" s="6"/>
+      <c r="G224" s="6"/>
     </row>
     <row r="225" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
@@ -15914,13 +15914,13 @@
       <c r="D225" t="s">
         <v>580</v>
       </c>
-      <c r="E225" s="8">
+      <c r="E225" s="7">
         <v>45891</v>
       </c>
-      <c r="F225" s="7">
+      <c r="F225" s="6">
         <v>45891.239583333343</v>
       </c>
-      <c r="G225" s="7">
+      <c r="G225" s="6">
         <v>45891.312881944446</v>
       </c>
       <c r="H225">
@@ -15934,16 +15934,16 @@
       </c>
     </row>
     <row r="226" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="9" t="s">
+      <c r="A226" s="8" t="s">
         <v>936</v>
       </c>
       <c r="B226">
         <f>SUBTOTAL(3,B225:B225)</f>
         <v>1</v>
       </c>
-      <c r="E226" s="8"/>
-      <c r="F226" s="7"/>
-      <c r="G226" s="7"/>
+      <c r="E226" s="7"/>
+      <c r="F226" s="6"/>
+      <c r="G226" s="6"/>
     </row>
     <row r="227" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
@@ -15955,13 +15955,13 @@
       <c r="D227" t="s">
         <v>580</v>
       </c>
-      <c r="E227" s="8">
+      <c r="E227" s="7">
         <v>45894</v>
       </c>
-      <c r="F227" s="7">
+      <c r="F227" s="6">
         <v>45894.326388888891</v>
       </c>
-      <c r="G227" s="7">
+      <c r="G227" s="6">
         <v>45894.466516203713</v>
       </c>
       <c r="H227">
@@ -15975,16 +15975,16 @@
       </c>
     </row>
     <row r="228" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="9" t="s">
+      <c r="A228" s="8" t="s">
         <v>937</v>
       </c>
       <c r="B228">
         <f>SUBTOTAL(3,B227:B227)</f>
         <v>1</v>
       </c>
-      <c r="E228" s="8"/>
-      <c r="F228" s="7"/>
-      <c r="G228" s="7"/>
+      <c r="E228" s="7"/>
+      <c r="F228" s="6"/>
+      <c r="G228" s="6"/>
     </row>
     <row r="229" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B229" t="s">
@@ -15996,13 +15996,13 @@
       <c r="D229" t="s">
         <v>580</v>
       </c>
-      <c r="E229" s="8">
+      <c r="E229" s="7">
         <v>45890</v>
       </c>
-      <c r="F229" s="7">
+      <c r="F229" s="6">
         <v>45890.326388888891</v>
       </c>
-      <c r="G229" s="7">
+      <c r="G229" s="6">
         <v>45890.335069444453</v>
       </c>
       <c r="H229">
@@ -16016,16 +16016,16 @@
       </c>
     </row>
     <row r="230" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="9" t="s">
+      <c r="A230" s="8" t="s">
         <v>938</v>
       </c>
       <c r="B230">
         <f>SUBTOTAL(3,B229:B229)</f>
         <v>1</v>
       </c>
-      <c r="E230" s="8"/>
-      <c r="F230" s="7"/>
-      <c r="G230" s="7"/>
+      <c r="E230" s="7"/>
+      <c r="F230" s="6"/>
+      <c r="G230" s="6"/>
     </row>
     <row r="231" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B231" t="s">
@@ -16037,13 +16037,13 @@
       <c r="D231" t="s">
         <v>584</v>
       </c>
-      <c r="E231" s="8">
+      <c r="E231" s="7">
         <v>45881</v>
       </c>
-      <c r="F231" s="7">
+      <c r="F231" s="6">
         <v>45881.326388888891</v>
       </c>
-      <c r="G231" s="7">
+      <c r="G231" s="6">
         <v>45881.341817129629</v>
       </c>
       <c r="H231">
@@ -16066,13 +16066,13 @@
       <c r="D232" t="s">
         <v>584</v>
       </c>
-      <c r="E232" s="8">
+      <c r="E232" s="7">
         <v>45895</v>
       </c>
-      <c r="F232" s="7">
+      <c r="F232" s="6">
         <v>45895.326388888891</v>
       </c>
-      <c r="G232" s="7">
+      <c r="G232" s="6">
         <v>45895.334317129629</v>
       </c>
       <c r="H232">
@@ -16086,16 +16086,16 @@
       </c>
     </row>
     <row r="233" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="9" t="s">
+      <c r="A233" s="8" t="s">
         <v>939</v>
       </c>
       <c r="B233">
         <f>SUBTOTAL(3,B231:B232)</f>
         <v>2</v>
       </c>
-      <c r="E233" s="8"/>
-      <c r="F233" s="7"/>
-      <c r="G233" s="7"/>
+      <c r="E233" s="7"/>
+      <c r="F233" s="6"/>
+      <c r="G233" s="6"/>
     </row>
     <row r="234" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B234" t="s">
@@ -16107,13 +16107,13 @@
       <c r="D234" t="s">
         <v>580</v>
       </c>
-      <c r="E234" s="8">
+      <c r="E234" s="7">
         <v>45891</v>
       </c>
-      <c r="F234" s="7">
+      <c r="F234" s="6">
         <v>45891.326388888891</v>
       </c>
-      <c r="G234" s="7">
+      <c r="G234" s="6">
         <v>45891.334456018521</v>
       </c>
       <c r="H234">
@@ -16136,13 +16136,13 @@
       <c r="D235" t="s">
         <v>580</v>
       </c>
-      <c r="E235" s="8">
+      <c r="E235" s="7">
         <v>45902</v>
       </c>
-      <c r="F235" s="7">
+      <c r="F235" s="6">
         <v>45902.326388888891</v>
       </c>
-      <c r="G235" s="7">
+      <c r="G235" s="6">
         <v>45902.334189814806</v>
       </c>
       <c r="H235">
@@ -16165,13 +16165,13 @@
       <c r="D236" t="s">
         <v>580</v>
       </c>
-      <c r="E236" s="8">
+      <c r="E236" s="7">
         <v>45903</v>
       </c>
-      <c r="F236" s="7">
+      <c r="F236" s="6">
         <v>45903.326388888891</v>
       </c>
-      <c r="G236" s="7">
+      <c r="G236" s="6">
         <v>45903.335324074083</v>
       </c>
       <c r="H236">
@@ -16194,13 +16194,13 @@
       <c r="D237" t="s">
         <v>580</v>
       </c>
-      <c r="E237" s="8">
+      <c r="E237" s="7">
         <v>45892</v>
       </c>
-      <c r="F237" s="7">
+      <c r="F237" s="6">
         <v>45892.291666666657</v>
       </c>
-      <c r="G237" s="7">
+      <c r="G237" s="6">
         <v>45892.300671296303</v>
       </c>
       <c r="H237">
@@ -16214,16 +16214,16 @@
       </c>
     </row>
     <row r="238" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="9" t="s">
+      <c r="A238" s="8" t="s">
         <v>940</v>
       </c>
       <c r="B238">
         <f>SUBTOTAL(3,B234:B237)</f>
         <v>4</v>
       </c>
-      <c r="E238" s="8"/>
-      <c r="F238" s="7"/>
-      <c r="G238" s="7"/>
+      <c r="E238" s="7"/>
+      <c r="F238" s="6"/>
+      <c r="G238" s="6"/>
     </row>
     <row r="239" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B239" t="s">
@@ -16235,13 +16235,13 @@
       <c r="D239" t="s">
         <v>580</v>
       </c>
-      <c r="E239" s="8">
+      <c r="E239" s="7">
         <v>45875</v>
       </c>
-      <c r="F239" s="7">
+      <c r="F239" s="6">
         <v>45875.243055555547</v>
       </c>
-      <c r="G239" s="7">
+      <c r="G239" s="6">
         <v>45875.322569444441</v>
       </c>
       <c r="H239">
@@ -16255,16 +16255,16 @@
       </c>
     </row>
     <row r="240" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="9" t="s">
+      <c r="A240" s="8" t="s">
         <v>941</v>
       </c>
       <c r="B240">
         <f>SUBTOTAL(3,B239:B239)</f>
         <v>1</v>
       </c>
-      <c r="E240" s="8"/>
-      <c r="F240" s="7"/>
-      <c r="G240" s="7"/>
+      <c r="E240" s="7"/>
+      <c r="F240" s="6"/>
+      <c r="G240" s="6"/>
     </row>
     <row r="241" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B241" t="s">
@@ -16276,13 +16276,13 @@
       <c r="D241" t="s">
         <v>580</v>
       </c>
-      <c r="E241" s="8">
+      <c r="E241" s="7">
         <v>45894</v>
       </c>
-      <c r="F241" s="7">
+      <c r="F241" s="6">
         <v>45894.326388888891</v>
       </c>
-      <c r="G241" s="7">
+      <c r="G241" s="6">
         <v>45894.467916666668</v>
       </c>
       <c r="H241">
@@ -16296,16 +16296,16 @@
       </c>
     </row>
     <row r="242" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="9" t="s">
+      <c r="A242" s="8" t="s">
         <v>942</v>
       </c>
       <c r="B242">
         <f>SUBTOTAL(3,B241:B241)</f>
         <v>1</v>
       </c>
-      <c r="E242" s="8"/>
-      <c r="F242" s="7"/>
-      <c r="G242" s="7"/>
+      <c r="E242" s="7"/>
+      <c r="F242" s="6"/>
+      <c r="G242" s="6"/>
     </row>
     <row r="243" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B243" t="s">
@@ -16317,13 +16317,13 @@
       <c r="D243" t="s">
         <v>580</v>
       </c>
-      <c r="E243" s="8">
+      <c r="E243" s="7">
         <v>45889</v>
       </c>
-      <c r="F243" s="7">
+      <c r="F243" s="6">
         <v>45889.368055555547</v>
       </c>
-      <c r="G243" s="7">
+      <c r="G243" s="6">
         <v>45889.383449074077</v>
       </c>
       <c r="H243">
@@ -16337,16 +16337,16 @@
       </c>
     </row>
     <row r="244" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="9" t="s">
+      <c r="A244" s="8" t="s">
         <v>943</v>
       </c>
       <c r="B244">
         <f>SUBTOTAL(3,B243:B243)</f>
         <v>1</v>
       </c>
-      <c r="E244" s="8"/>
-      <c r="F244" s="7"/>
-      <c r="G244" s="7"/>
+      <c r="E244" s="7"/>
+      <c r="F244" s="6"/>
+      <c r="G244" s="6"/>
     </row>
     <row r="245" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B245" t="s">
@@ -16358,13 +16358,13 @@
       <c r="D245" t="s">
         <v>580</v>
       </c>
-      <c r="E245" s="8">
+      <c r="E245" s="7">
         <v>45877</v>
       </c>
-      <c r="F245" s="7">
+      <c r="F245" s="6">
         <v>45877.305555555547</v>
       </c>
-      <c r="G245" s="7">
+      <c r="G245" s="6">
         <v>45877.315972222219</v>
       </c>
       <c r="H245">
@@ -16378,16 +16378,16 @@
       </c>
     </row>
     <row r="246" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="9" t="s">
+      <c r="A246" s="8" t="s">
         <v>944</v>
       </c>
       <c r="B246">
         <f>SUBTOTAL(3,B245:B245)</f>
         <v>1</v>
       </c>
-      <c r="E246" s="8"/>
-      <c r="F246" s="7"/>
-      <c r="G246" s="7"/>
+      <c r="E246" s="7"/>
+      <c r="F246" s="6"/>
+      <c r="G246" s="6"/>
     </row>
     <row r="247" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B247" t="s">
@@ -16399,13 +16399,13 @@
       <c r="D247" t="s">
         <v>592</v>
       </c>
-      <c r="E247" s="8">
+      <c r="E247" s="7">
         <v>45902</v>
       </c>
-      <c r="F247" s="7">
+      <c r="F247" s="6">
         <v>45902.284722222219</v>
       </c>
-      <c r="G247" s="7">
+      <c r="G247" s="6">
         <v>45902.291851851849</v>
       </c>
       <c r="H247">
@@ -16419,16 +16419,16 @@
       </c>
     </row>
     <row r="248" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="9" t="s">
+      <c r="A248" s="8" t="s">
         <v>945</v>
       </c>
       <c r="B248">
         <f>SUBTOTAL(3,B247:B247)</f>
         <v>1</v>
       </c>
-      <c r="E248" s="8"/>
-      <c r="F248" s="7"/>
-      <c r="G248" s="7"/>
+      <c r="E248" s="7"/>
+      <c r="F248" s="6"/>
+      <c r="G248" s="6"/>
     </row>
     <row r="249" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B249" t="s">
@@ -16440,13 +16440,13 @@
       <c r="D249" t="s">
         <v>584</v>
       </c>
-      <c r="E249" s="8">
+      <c r="E249" s="7">
         <v>45877</v>
       </c>
-      <c r="F249" s="7">
+      <c r="F249" s="6">
         <v>45877.326388888891</v>
       </c>
-      <c r="G249" s="7">
+      <c r="G249" s="6">
         <v>45877.33520833333</v>
       </c>
       <c r="H249">
@@ -16469,13 +16469,13 @@
       <c r="D250" t="s">
         <v>584</v>
       </c>
-      <c r="E250" s="8">
+      <c r="E250" s="7">
         <v>45882</v>
       </c>
-      <c r="F250" s="7">
+      <c r="F250" s="6">
         <v>45882.326388888891</v>
       </c>
-      <c r="G250" s="7">
+      <c r="G250" s="6">
         <v>45882.342615740738</v>
       </c>
       <c r="H250">
@@ -16498,13 +16498,13 @@
       <c r="D251" t="s">
         <v>584</v>
       </c>
-      <c r="E251" s="8">
+      <c r="E251" s="7">
         <v>45887</v>
       </c>
-      <c r="F251" s="7">
+      <c r="F251" s="6">
         <v>45887.326388888891</v>
       </c>
-      <c r="G251" s="7">
+      <c r="G251" s="6">
         <v>45887.34107638889</v>
       </c>
       <c r="H251">
@@ -16527,13 +16527,13 @@
       <c r="D252" t="s">
         <v>584</v>
       </c>
-      <c r="E252" s="8">
+      <c r="E252" s="7">
         <v>45889</v>
       </c>
-      <c r="F252" s="7">
+      <c r="F252" s="6">
         <v>45889.326388888891</v>
       </c>
-      <c r="G252" s="7">
+      <c r="G252" s="6">
         <v>45889.333645833343</v>
       </c>
       <c r="H252">
@@ -16556,13 +16556,13 @@
       <c r="D253" t="s">
         <v>584</v>
       </c>
-      <c r="E253" s="8">
+      <c r="E253" s="7">
         <v>45891</v>
       </c>
-      <c r="F253" s="7">
+      <c r="F253" s="6">
         <v>45891.326388888891</v>
       </c>
-      <c r="G253" s="7">
+      <c r="G253" s="6">
         <v>45891.338750000003</v>
       </c>
       <c r="H253">
@@ -16585,13 +16585,13 @@
       <c r="D254" t="s">
         <v>584</v>
       </c>
-      <c r="E254" s="8">
+      <c r="E254" s="7">
         <v>45895</v>
       </c>
-      <c r="F254" s="7">
+      <c r="F254" s="6">
         <v>45895.326388888891</v>
       </c>
-      <c r="G254" s="7">
+      <c r="G254" s="6">
         <v>45895.333726851852</v>
       </c>
       <c r="H254">
@@ -16614,13 +16614,13 @@
       <c r="D255" t="s">
         <v>584</v>
       </c>
-      <c r="E255" s="8">
+      <c r="E255" s="7">
         <v>45897</v>
       </c>
-      <c r="F255" s="7">
+      <c r="F255" s="6">
         <v>45897.326388888891</v>
       </c>
-      <c r="G255" s="7">
+      <c r="G255" s="6">
         <v>45897.334629629629</v>
       </c>
       <c r="H255">
@@ -16643,13 +16643,13 @@
       <c r="D256" t="s">
         <v>584</v>
       </c>
-      <c r="E256" s="8">
+      <c r="E256" s="7">
         <v>45898</v>
       </c>
-      <c r="F256" s="7">
+      <c r="F256" s="6">
         <v>45898.326388888891</v>
       </c>
-      <c r="G256" s="7">
+      <c r="G256" s="6">
         <v>45898.34165509259</v>
       </c>
       <c r="H256">
@@ -16672,13 +16672,13 @@
       <c r="D257" t="s">
         <v>584</v>
       </c>
-      <c r="E257" s="8">
+      <c r="E257" s="7">
         <v>45902</v>
       </c>
-      <c r="F257" s="7">
+      <c r="F257" s="6">
         <v>45902.326388888891</v>
       </c>
-      <c r="G257" s="7">
+      <c r="G257" s="6">
         <v>45902.334513888891</v>
       </c>
       <c r="H257">
@@ -16701,13 +16701,13 @@
       <c r="D258" t="s">
         <v>584</v>
       </c>
-      <c r="E258" s="8">
+      <c r="E258" s="7">
         <v>45904</v>
       </c>
-      <c r="F258" s="7">
+      <c r="F258" s="6">
         <v>45904.430555555547</v>
       </c>
-      <c r="G258" s="7">
+      <c r="G258" s="6">
         <v>45904.455405092587</v>
       </c>
       <c r="H258">
@@ -16721,16 +16721,16 @@
       </c>
     </row>
     <row r="259" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="9" t="s">
+      <c r="A259" s="8" t="s">
         <v>946</v>
       </c>
       <c r="B259">
         <f>SUBTOTAL(3,B249:B258)</f>
         <v>10</v>
       </c>
-      <c r="E259" s="8"/>
-      <c r="F259" s="7"/>
-      <c r="G259" s="7"/>
+      <c r="E259" s="7"/>
+      <c r="F259" s="6"/>
+      <c r="G259" s="6"/>
     </row>
     <row r="260" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B260" t="s">
@@ -16742,13 +16742,13 @@
       <c r="D260" t="s">
         <v>584</v>
       </c>
-      <c r="E260" s="8">
+      <c r="E260" s="7">
         <v>45875</v>
       </c>
-      <c r="F260" s="7">
+      <c r="F260" s="6">
         <v>45875.326388888891</v>
       </c>
-      <c r="G260" s="7">
+      <c r="G260" s="6">
         <v>45875.335405092592</v>
       </c>
       <c r="H260">
@@ -16771,13 +16771,13 @@
       <c r="D261" t="s">
         <v>584</v>
       </c>
-      <c r="E261" s="8">
+      <c r="E261" s="7">
         <v>45877</v>
       </c>
-      <c r="F261" s="7">
+      <c r="F261" s="6">
         <v>45877.326388888891</v>
       </c>
-      <c r="G261" s="7">
+      <c r="G261" s="6">
         <v>45877.339687500003</v>
       </c>
       <c r="H261">
@@ -16800,13 +16800,13 @@
       <c r="D262" t="s">
         <v>584</v>
       </c>
-      <c r="E262" s="8">
+      <c r="E262" s="7">
         <v>45888</v>
       </c>
-      <c r="F262" s="7">
+      <c r="F262" s="6">
         <v>45888.326388888891</v>
       </c>
-      <c r="G262" s="7">
+      <c r="G262" s="6">
         <v>45888.336736111109</v>
       </c>
       <c r="H262">
@@ -16829,13 +16829,13 @@
       <c r="D263" t="s">
         <v>584</v>
       </c>
-      <c r="E263" s="8">
+      <c r="E263" s="7">
         <v>45889</v>
       </c>
-      <c r="F263" s="7">
+      <c r="F263" s="6">
         <v>45889.326388888891</v>
       </c>
-      <c r="G263" s="7">
+      <c r="G263" s="6">
         <v>45889.347083333327</v>
       </c>
       <c r="H263">
@@ -16858,13 +16858,13 @@
       <c r="D264" t="s">
         <v>584</v>
       </c>
-      <c r="E264" s="8">
+      <c r="E264" s="7">
         <v>45890</v>
       </c>
-      <c r="F264" s="7">
+      <c r="F264" s="6">
         <v>45890.326388888891</v>
       </c>
-      <c r="G264" s="7">
+      <c r="G264" s="6">
         <v>45890.334456018521</v>
       </c>
       <c r="H264">
@@ -16887,13 +16887,13 @@
       <c r="D265" t="s">
         <v>584</v>
       </c>
-      <c r="E265" s="8">
+      <c r="E265" s="7">
         <v>45895</v>
       </c>
-      <c r="F265" s="7">
+      <c r="F265" s="6">
         <v>45895.326388888891</v>
       </c>
-      <c r="G265" s="7">
+      <c r="G265" s="6">
         <v>45895.334756944438</v>
       </c>
       <c r="H265">
@@ -16916,13 +16916,13 @@
       <c r="D266" t="s">
         <v>584</v>
       </c>
-      <c r="E266" s="8">
+      <c r="E266" s="7">
         <v>45896</v>
       </c>
-      <c r="F266" s="7">
+      <c r="F266" s="6">
         <v>45896.326388888891</v>
       </c>
-      <c r="G266" s="7">
+      <c r="G266" s="6">
         <v>45896.341909722221</v>
       </c>
       <c r="H266">
@@ -16945,13 +16945,13 @@
       <c r="D267" t="s">
         <v>584</v>
       </c>
-      <c r="E267" s="8">
+      <c r="E267" s="7">
         <v>45898</v>
       </c>
-      <c r="F267" s="7">
+      <c r="F267" s="6">
         <v>45898.326388888891</v>
       </c>
-      <c r="G267" s="7">
+      <c r="G267" s="6">
         <v>45898.35292824074</v>
       </c>
       <c r="H267">
@@ -16974,13 +16974,13 @@
       <c r="D268" t="s">
         <v>584</v>
       </c>
-      <c r="E268" s="8">
+      <c r="E268" s="7">
         <v>45901</v>
       </c>
-      <c r="F268" s="7">
+      <c r="F268" s="6">
         <v>45901.326388888891</v>
       </c>
-      <c r="G268" s="7">
+      <c r="G268" s="6">
         <v>45901.334201388891</v>
       </c>
       <c r="H268">
@@ -17003,13 +17003,13 @@
       <c r="D269" t="s">
         <v>584</v>
       </c>
-      <c r="E269" s="8">
+      <c r="E269" s="7">
         <v>45903</v>
       </c>
-      <c r="F269" s="7">
+      <c r="F269" s="6">
         <v>45903.326388888891</v>
       </c>
-      <c r="G269" s="7">
+      <c r="G269" s="6">
         <v>45903.343923611108</v>
       </c>
       <c r="H269">
@@ -17023,16 +17023,16 @@
       </c>
     </row>
     <row r="270" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="9" t="s">
+      <c r="A270" s="8" t="s">
         <v>947</v>
       </c>
       <c r="B270">
         <f>SUBTOTAL(3,B260:B269)</f>
         <v>10</v>
       </c>
-      <c r="E270" s="8"/>
-      <c r="F270" s="7"/>
-      <c r="G270" s="7"/>
+      <c r="E270" s="7"/>
+      <c r="F270" s="6"/>
+      <c r="G270" s="6"/>
     </row>
     <row r="271" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B271" t="s">
@@ -17044,13 +17044,13 @@
       <c r="D271" t="s">
         <v>584</v>
       </c>
-      <c r="E271" s="8">
+      <c r="E271" s="7">
         <v>45875</v>
       </c>
-      <c r="F271" s="7">
+      <c r="F271" s="6">
         <v>45875.326388888891</v>
       </c>
-      <c r="G271" s="7">
+      <c r="G271" s="6">
         <v>45875.337337962963</v>
       </c>
       <c r="H271">
@@ -17073,13 +17073,13 @@
       <c r="D272" t="s">
         <v>584</v>
       </c>
-      <c r="E272" s="8">
+      <c r="E272" s="7">
         <v>45876</v>
       </c>
-      <c r="F272" s="7">
+      <c r="F272" s="6">
         <v>45876.326388888891</v>
       </c>
-      <c r="G272" s="7">
+      <c r="G272" s="6">
         <v>45876.341226851851</v>
       </c>
       <c r="H272">
@@ -17102,13 +17102,13 @@
       <c r="D273" t="s">
         <v>584</v>
       </c>
-      <c r="E273" s="8">
+      <c r="E273" s="7">
         <v>45877</v>
       </c>
-      <c r="F273" s="7">
+      <c r="F273" s="6">
         <v>45877.326388888891</v>
       </c>
-      <c r="G273" s="7">
+      <c r="G273" s="6">
         <v>45877.344733796293</v>
       </c>
       <c r="H273">
@@ -17131,13 +17131,13 @@
       <c r="D274" t="s">
         <v>584</v>
       </c>
-      <c r="E274" s="8">
+      <c r="E274" s="7">
         <v>45880</v>
       </c>
-      <c r="F274" s="7">
+      <c r="F274" s="6">
         <v>45880.326388888891</v>
       </c>
-      <c r="G274" s="7">
+      <c r="G274" s="6">
         <v>45880.348599537043</v>
       </c>
       <c r="H274">
@@ -17160,13 +17160,13 @@
       <c r="D275" t="s">
         <v>584</v>
       </c>
-      <c r="E275" s="8">
+      <c r="E275" s="7">
         <v>45881</v>
       </c>
-      <c r="F275" s="7">
+      <c r="F275" s="6">
         <v>45881.326388888891</v>
       </c>
-      <c r="G275" s="7">
+      <c r="G275" s="6">
         <v>45881.339270833327</v>
       </c>
       <c r="H275">
@@ -17189,13 +17189,13 @@
       <c r="D276" t="s">
         <v>584</v>
       </c>
-      <c r="E276" s="8">
+      <c r="E276" s="7">
         <v>45882</v>
       </c>
-      <c r="F276" s="7">
+      <c r="F276" s="6">
         <v>45882.326388888891</v>
       </c>
-      <c r="G276" s="7">
+      <c r="G276" s="6">
         <v>45882.338206018518</v>
       </c>
       <c r="H276">
@@ -17218,13 +17218,13 @@
       <c r="D277" t="s">
         <v>584</v>
       </c>
-      <c r="E277" s="8">
+      <c r="E277" s="7">
         <v>45883</v>
       </c>
-      <c r="F277" s="7">
+      <c r="F277" s="6">
         <v>45883.326388888891</v>
       </c>
-      <c r="G277" s="7">
+      <c r="G277" s="6">
         <v>45883.334965277783</v>
       </c>
       <c r="H277">
@@ -17247,13 +17247,13 @@
       <c r="D278" t="s">
         <v>584</v>
       </c>
-      <c r="E278" s="8">
+      <c r="E278" s="7">
         <v>45887</v>
       </c>
-      <c r="F278" s="7">
+      <c r="F278" s="6">
         <v>45887.326388888891</v>
       </c>
-      <c r="G278" s="7">
+      <c r="G278" s="6">
         <v>45887.340729166674</v>
       </c>
       <c r="H278">
@@ -17276,13 +17276,13 @@
       <c r="D279" t="s">
         <v>584</v>
       </c>
-      <c r="E279" s="8">
+      <c r="E279" s="7">
         <v>45888</v>
       </c>
-      <c r="F279" s="7">
+      <c r="F279" s="6">
         <v>45888.326388888891</v>
       </c>
-      <c r="G279" s="7">
+      <c r="G279" s="6">
         <v>45888.339212962957</v>
       </c>
       <c r="H279">
@@ -17305,13 +17305,13 @@
       <c r="D280" t="s">
         <v>584</v>
       </c>
-      <c r="E280" s="8">
+      <c r="E280" s="7">
         <v>45889</v>
       </c>
-      <c r="F280" s="7">
+      <c r="F280" s="6">
         <v>45889.326388888891</v>
       </c>
-      <c r="G280" s="7">
+      <c r="G280" s="6">
         <v>45889.33766203704</v>
       </c>
       <c r="H280">
@@ -17334,13 +17334,13 @@
       <c r="D281" t="s">
         <v>584</v>
       </c>
-      <c r="E281" s="8">
+      <c r="E281" s="7">
         <v>45890</v>
       </c>
-      <c r="F281" s="7">
+      <c r="F281" s="6">
         <v>45890.326388888891</v>
       </c>
-      <c r="G281" s="7">
+      <c r="G281" s="6">
         <v>45890.33929398148</v>
       </c>
       <c r="H281">
@@ -17363,13 +17363,13 @@
       <c r="D282" t="s">
         <v>584</v>
       </c>
-      <c r="E282" s="8">
+      <c r="E282" s="7">
         <v>45891</v>
       </c>
-      <c r="F282" s="7">
+      <c r="F282" s="6">
         <v>45891.326388888891</v>
       </c>
-      <c r="G282" s="7">
+      <c r="G282" s="6">
         <v>45891.344375000001</v>
       </c>
       <c r="H282">
@@ -17392,13 +17392,13 @@
       <c r="D283" t="s">
         <v>584</v>
       </c>
-      <c r="E283" s="8">
+      <c r="E283" s="7">
         <v>45901</v>
       </c>
-      <c r="F283" s="7">
+      <c r="F283" s="6">
         <v>45901.326388888891</v>
       </c>
-      <c r="G283" s="7">
+      <c r="G283" s="6">
         <v>45901.337025462963</v>
       </c>
       <c r="H283">
@@ -17421,13 +17421,13 @@
       <c r="D284" t="s">
         <v>584</v>
       </c>
-      <c r="E284" s="8">
+      <c r="E284" s="7">
         <v>45902</v>
       </c>
-      <c r="F284" s="7">
+      <c r="F284" s="6">
         <v>45902.326388888891</v>
       </c>
-      <c r="G284" s="7">
+      <c r="G284" s="6">
         <v>45902.337881944448</v>
       </c>
       <c r="H284">
@@ -17441,16 +17441,16 @@
       </c>
     </row>
     <row r="285" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="9" t="s">
+      <c r="A285" s="8" t="s">
         <v>948</v>
       </c>
       <c r="B285">
         <f>SUBTOTAL(3,B271:B284)</f>
         <v>14</v>
       </c>
-      <c r="E285" s="8"/>
-      <c r="F285" s="7"/>
-      <c r="G285" s="7"/>
+      <c r="E285" s="7"/>
+      <c r="F285" s="6"/>
+      <c r="G285" s="6"/>
     </row>
     <row r="286" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B286" t="s">
@@ -17462,13 +17462,13 @@
       <c r="D286" t="s">
         <v>587</v>
       </c>
-      <c r="E286" s="8">
+      <c r="E286" s="7">
         <v>45902</v>
       </c>
-      <c r="F286" s="7">
+      <c r="F286" s="6">
         <v>45902.458333333343</v>
       </c>
-      <c r="G286" s="7">
+      <c r="G286" s="6">
         <v>45902.46601851852</v>
       </c>
       <c r="H286">
@@ -17482,16 +17482,16 @@
       </c>
     </row>
     <row r="287" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="9" t="s">
+      <c r="A287" s="8" t="s">
         <v>949</v>
       </c>
       <c r="B287">
         <f>SUBTOTAL(3,B286:B286)</f>
         <v>1</v>
       </c>
-      <c r="E287" s="8"/>
-      <c r="F287" s="7"/>
-      <c r="G287" s="7"/>
+      <c r="E287" s="7"/>
+      <c r="F287" s="6"/>
+      <c r="G287" s="6"/>
     </row>
     <row r="288" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B288" t="s">
@@ -17503,13 +17503,13 @@
       <c r="D288" t="s">
         <v>580</v>
       </c>
-      <c r="E288" s="8">
+      <c r="E288" s="7">
         <v>45880</v>
       </c>
-      <c r="F288" s="7">
+      <c r="F288" s="6">
         <v>45880.326388888891</v>
       </c>
-      <c r="G288" s="7">
+      <c r="G288" s="6">
         <v>45880.345358796287</v>
       </c>
       <c r="H288">
@@ -17532,13 +17532,13 @@
       <c r="D289" t="s">
         <v>580</v>
       </c>
-      <c r="E289" s="8">
+      <c r="E289" s="7">
         <v>45882</v>
       </c>
-      <c r="F289" s="7">
+      <c r="F289" s="6">
         <v>45882.326388888891</v>
       </c>
-      <c r="G289" s="7">
+      <c r="G289" s="6">
         <v>45882.339421296303</v>
       </c>
       <c r="H289">
@@ -17561,13 +17561,13 @@
       <c r="D290" t="s">
         <v>580</v>
       </c>
-      <c r="E290" s="8">
+      <c r="E290" s="7">
         <v>45883</v>
       </c>
-      <c r="F290" s="7">
+      <c r="F290" s="6">
         <v>45883.326388888891</v>
       </c>
-      <c r="G290" s="7">
+      <c r="G290" s="6">
         <v>45883.335162037038</v>
       </c>
       <c r="H290">
@@ -17590,13 +17590,13 @@
       <c r="D291" t="s">
         <v>580</v>
       </c>
-      <c r="E291" s="8">
+      <c r="E291" s="7">
         <v>45888</v>
       </c>
-      <c r="F291" s="7">
+      <c r="F291" s="6">
         <v>45888.326388888891</v>
       </c>
-      <c r="G291" s="7">
+      <c r="G291" s="6">
         <v>45888.342106481483</v>
       </c>
       <c r="H291">
@@ -17610,16 +17610,16 @@
       </c>
     </row>
     <row r="292" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="9" t="s">
+      <c r="A292" s="8" t="s">
         <v>950</v>
       </c>
       <c r="B292">
         <f>SUBTOTAL(3,B288:B291)</f>
         <v>4</v>
       </c>
-      <c r="E292" s="8"/>
-      <c r="F292" s="7"/>
-      <c r="G292" s="7"/>
+      <c r="E292" s="7"/>
+      <c r="F292" s="6"/>
+      <c r="G292" s="6"/>
     </row>
     <row r="293" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B293" t="s">
@@ -17631,13 +17631,13 @@
       <c r="D293" t="s">
         <v>584</v>
       </c>
-      <c r="E293" s="8">
+      <c r="E293" s="7">
         <v>45877</v>
       </c>
-      <c r="F293" s="7">
+      <c r="F293" s="6">
         <v>45877.326388888891</v>
       </c>
-      <c r="G293" s="7">
+      <c r="G293" s="6">
         <v>45877.333819444437</v>
       </c>
       <c r="H293">
@@ -17651,16 +17651,16 @@
       </c>
     </row>
     <row r="294" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A294" s="9" t="s">
+      <c r="A294" s="8" t="s">
         <v>951</v>
       </c>
       <c r="B294">
         <f>SUBTOTAL(3,B293:B293)</f>
         <v>1</v>
       </c>
-      <c r="E294" s="8"/>
-      <c r="F294" s="7"/>
-      <c r="G294" s="7"/>
+      <c r="E294" s="7"/>
+      <c r="F294" s="6"/>
+      <c r="G294" s="6"/>
     </row>
     <row r="295" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B295" t="s">
@@ -17672,13 +17672,13 @@
       <c r="D295" t="s">
         <v>580</v>
       </c>
-      <c r="E295" s="8">
+      <c r="E295" s="7">
         <v>45898</v>
       </c>
-      <c r="F295" s="7">
+      <c r="F295" s="6">
         <v>45898.326388888891</v>
       </c>
-      <c r="G295" s="7">
+      <c r="G295" s="6">
         <v>45898.357164351852</v>
       </c>
       <c r="H295">
@@ -17692,16 +17692,16 @@
       </c>
     </row>
     <row r="296" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A296" s="9" t="s">
+      <c r="A296" s="8" t="s">
         <v>952</v>
       </c>
       <c r="B296">
         <f>SUBTOTAL(3,B295:B295)</f>
         <v>1</v>
       </c>
-      <c r="E296" s="8"/>
-      <c r="F296" s="7"/>
-      <c r="G296" s="7"/>
+      <c r="E296" s="7"/>
+      <c r="F296" s="6"/>
+      <c r="G296" s="6"/>
     </row>
     <row r="297" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B297" t="s">
@@ -17713,13 +17713,13 @@
       <c r="D297" t="s">
         <v>584</v>
       </c>
-      <c r="E297" s="8">
+      <c r="E297" s="7">
         <v>45883</v>
       </c>
-      <c r="F297" s="7">
+      <c r="F297" s="6">
         <v>45883.326388888891</v>
       </c>
-      <c r="G297" s="7">
+      <c r="G297" s="6">
         <v>45883.340925925928</v>
       </c>
       <c r="H297">
@@ -17742,13 +17742,13 @@
       <c r="D298" t="s">
         <v>584</v>
       </c>
-      <c r="E298" s="8">
+      <c r="E298" s="7">
         <v>45889</v>
       </c>
-      <c r="F298" s="7">
+      <c r="F298" s="6">
         <v>45889.326388888891</v>
       </c>
-      <c r="G298" s="7">
+      <c r="G298" s="6">
         <v>45889.346412037034</v>
       </c>
       <c r="H298">
@@ -17771,13 +17771,13 @@
       <c r="D299" t="s">
         <v>584</v>
       </c>
-      <c r="E299" s="8">
+      <c r="E299" s="7">
         <v>45891</v>
       </c>
-      <c r="F299" s="7">
+      <c r="F299" s="6">
         <v>45891.326388888891</v>
       </c>
-      <c r="G299" s="7">
+      <c r="G299" s="6">
         <v>45891.337685185194</v>
       </c>
       <c r="H299">
@@ -17791,16 +17791,16 @@
       </c>
     </row>
     <row r="300" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A300" s="9" t="s">
+      <c r="A300" s="8" t="s">
         <v>953</v>
       </c>
       <c r="B300">
         <f>SUBTOTAL(3,B297:B299)</f>
         <v>3</v>
       </c>
-      <c r="E300" s="8"/>
-      <c r="F300" s="7"/>
-      <c r="G300" s="7"/>
+      <c r="E300" s="7"/>
+      <c r="F300" s="6"/>
+      <c r="G300" s="6"/>
     </row>
     <row r="301" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B301" t="s">
@@ -17812,13 +17812,13 @@
       <c r="D301" t="s">
         <v>584</v>
       </c>
-      <c r="E301" s="8">
+      <c r="E301" s="7">
         <v>45880</v>
       </c>
-      <c r="F301" s="7">
+      <c r="F301" s="6">
         <v>45880.326388888891</v>
       </c>
-      <c r="G301" s="7">
+      <c r="G301" s="6">
         <v>45880.466006944444</v>
       </c>
       <c r="H301">
@@ -17832,16 +17832,16 @@
       </c>
     </row>
     <row r="302" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A302" s="9" t="s">
+      <c r="A302" s="8" t="s">
         <v>954</v>
       </c>
       <c r="B302">
         <f>SUBTOTAL(3,B301:B301)</f>
         <v>1</v>
       </c>
-      <c r="E302" s="8"/>
-      <c r="F302" s="7"/>
-      <c r="G302" s="7"/>
+      <c r="E302" s="7"/>
+      <c r="F302" s="6"/>
+      <c r="G302" s="6"/>
     </row>
     <row r="303" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B303" t="s">
@@ -17853,13 +17853,13 @@
       <c r="D303" t="s">
         <v>580</v>
       </c>
-      <c r="E303" s="8">
+      <c r="E303" s="7">
         <v>45881</v>
       </c>
-      <c r="F303" s="7">
+      <c r="F303" s="6">
         <v>45881.326388888891</v>
       </c>
-      <c r="G303" s="7">
+      <c r="G303" s="6">
         <v>45881.441805555558</v>
       </c>
       <c r="H303">
@@ -17882,13 +17882,13 @@
       <c r="D304" t="s">
         <v>580</v>
       </c>
-      <c r="E304" s="8">
+      <c r="E304" s="7">
         <v>45889</v>
       </c>
-      <c r="F304" s="7">
+      <c r="F304" s="6">
         <v>45889.326388888891</v>
       </c>
-      <c r="G304" s="7">
+      <c r="G304" s="6">
         <v>45889.353935185187</v>
       </c>
       <c r="H304">
@@ -17911,13 +17911,13 @@
       <c r="D305" t="s">
         <v>580</v>
       </c>
-      <c r="E305" s="8">
+      <c r="E305" s="7">
         <v>45903</v>
       </c>
-      <c r="F305" s="7">
+      <c r="F305" s="6">
         <v>45903.246527777781</v>
       </c>
-      <c r="G305" s="7">
+      <c r="G305" s="6">
         <v>45903.282175925917</v>
       </c>
       <c r="H305">
@@ -17940,13 +17940,13 @@
       <c r="D306" t="s">
         <v>580</v>
       </c>
-      <c r="E306" s="8">
+      <c r="E306" s="7">
         <v>45904</v>
       </c>
-      <c r="F306" s="7">
+      <c r="F306" s="6">
         <v>45904.243055555547</v>
       </c>
-      <c r="G306" s="7">
+      <c r="G306" s="6">
         <v>45904.282604166663</v>
       </c>
       <c r="H306">
@@ -17960,16 +17960,16 @@
       </c>
     </row>
     <row r="307" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A307" s="9" t="s">
+      <c r="A307" s="8" t="s">
         <v>955</v>
       </c>
       <c r="B307">
         <f>SUBTOTAL(3,B303:B306)</f>
         <v>4</v>
       </c>
-      <c r="E307" s="8"/>
-      <c r="F307" s="7"/>
-      <c r="G307" s="7"/>
+      <c r="E307" s="7"/>
+      <c r="F307" s="6"/>
+      <c r="G307" s="6"/>
     </row>
     <row r="308" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B308" t="s">
@@ -17981,13 +17981,13 @@
       <c r="D308" t="s">
         <v>580</v>
       </c>
-      <c r="E308" s="8">
+      <c r="E308" s="7">
         <v>45896</v>
       </c>
-      <c r="F308" s="7">
+      <c r="F308" s="6">
         <v>45896.833333333343</v>
       </c>
-      <c r="G308" s="7">
+      <c r="G308" s="6">
         <v>45896.854050925933</v>
       </c>
       <c r="H308">
@@ -18001,16 +18001,16 @@
       </c>
     </row>
     <row r="309" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A309" s="9" t="s">
+      <c r="A309" s="8" t="s">
         <v>956</v>
       </c>
       <c r="B309">
         <f>SUBTOTAL(3,B308:B308)</f>
         <v>1</v>
       </c>
-      <c r="E309" s="8"/>
-      <c r="F309" s="7"/>
-      <c r="G309" s="7"/>
+      <c r="E309" s="7"/>
+      <c r="F309" s="6"/>
+      <c r="G309" s="6"/>
     </row>
     <row r="310" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B310" t="s">
@@ -18022,13 +18022,13 @@
       <c r="D310" t="s">
         <v>585</v>
       </c>
-      <c r="E310" s="8">
+      <c r="E310" s="7">
         <v>45876</v>
       </c>
-      <c r="F310" s="7">
+      <c r="F310" s="6">
         <v>45876.326388888891</v>
       </c>
-      <c r="G310" s="7">
+      <c r="G310" s="6">
         <v>45876.334108796298</v>
       </c>
       <c r="H310">
@@ -18051,13 +18051,13 @@
       <c r="D311" t="s">
         <v>585</v>
       </c>
-      <c r="E311" s="8">
+      <c r="E311" s="7">
         <v>45877</v>
       </c>
-      <c r="F311" s="7">
+      <c r="F311" s="6">
         <v>45877.326388888891</v>
       </c>
-      <c r="G311" s="7">
+      <c r="G311" s="6">
         <v>45877.349293981482</v>
       </c>
       <c r="H311">
@@ -18080,13 +18080,13 @@
       <c r="D312" t="s">
         <v>585</v>
       </c>
-      <c r="E312" s="8">
+      <c r="E312" s="7">
         <v>45880</v>
       </c>
-      <c r="F312" s="7">
+      <c r="F312" s="6">
         <v>45880.326388888891</v>
       </c>
-      <c r="G312" s="7">
+      <c r="G312" s="6">
         <v>45880.34</v>
       </c>
       <c r="H312">
@@ -18109,13 +18109,13 @@
       <c r="D313" t="s">
         <v>585</v>
       </c>
-      <c r="E313" s="8">
+      <c r="E313" s="7">
         <v>45881</v>
       </c>
-      <c r="F313" s="7">
+      <c r="F313" s="6">
         <v>45881.326388888891</v>
       </c>
-      <c r="G313" s="7">
+      <c r="G313" s="6">
         <v>45881.335706018523</v>
       </c>
       <c r="H313">
@@ -18138,13 +18138,13 @@
       <c r="D314" t="s">
         <v>585</v>
       </c>
-      <c r="E314" s="8">
+      <c r="E314" s="7">
         <v>45887</v>
       </c>
-      <c r="F314" s="7">
+      <c r="F314" s="6">
         <v>45887.326388888891</v>
       </c>
-      <c r="G314" s="7">
+      <c r="G314" s="6">
         <v>45887.339814814812</v>
       </c>
       <c r="H314">
@@ -18167,13 +18167,13 @@
       <c r="D315" t="s">
         <v>585</v>
       </c>
-      <c r="E315" s="8">
+      <c r="E315" s="7">
         <v>45894</v>
       </c>
-      <c r="F315" s="7">
+      <c r="F315" s="6">
         <v>45894.326388888891</v>
       </c>
-      <c r="G315" s="7">
+      <c r="G315" s="6">
         <v>45894.336053240739</v>
       </c>
       <c r="H315">
@@ -18196,13 +18196,13 @@
       <c r="D316" t="s">
         <v>585</v>
       </c>
-      <c r="E316" s="8">
+      <c r="E316" s="7">
         <v>45895</v>
       </c>
-      <c r="F316" s="7">
+      <c r="F316" s="6">
         <v>45895.326388888891</v>
       </c>
-      <c r="G316" s="7">
+      <c r="G316" s="6">
         <v>45895.333437499998</v>
       </c>
       <c r="H316">
@@ -18225,13 +18225,13 @@
       <c r="D317" t="s">
         <v>585</v>
       </c>
-      <c r="E317" s="8">
+      <c r="E317" s="7">
         <v>45896</v>
       </c>
-      <c r="F317" s="7">
+      <c r="F317" s="6">
         <v>45896.326388888891</v>
       </c>
-      <c r="G317" s="7">
+      <c r="G317" s="6">
         <v>45896.390729166669</v>
       </c>
       <c r="H317">
@@ -18245,16 +18245,16 @@
       </c>
     </row>
     <row r="318" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A318" s="9" t="s">
+      <c r="A318" s="8" t="s">
         <v>957</v>
       </c>
       <c r="B318">
         <f>SUBTOTAL(3,B310:B317)</f>
         <v>8</v>
       </c>
-      <c r="E318" s="8"/>
-      <c r="F318" s="7"/>
-      <c r="G318" s="7"/>
+      <c r="E318" s="7"/>
+      <c r="F318" s="6"/>
+      <c r="G318" s="6"/>
     </row>
     <row r="319" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B319" t="s">
@@ -18266,13 +18266,13 @@
       <c r="D319" t="s">
         <v>590</v>
       </c>
-      <c r="E319" s="8">
+      <c r="E319" s="7">
         <v>45889</v>
       </c>
-      <c r="F319" s="7">
+      <c r="F319" s="6">
         <v>45889.326388888891</v>
       </c>
-      <c r="G319" s="7">
+      <c r="G319" s="6">
         <v>45889.336608796293</v>
       </c>
       <c r="H319">
@@ -18295,13 +18295,13 @@
       <c r="D320" t="s">
         <v>590</v>
       </c>
-      <c r="E320" s="8">
+      <c r="E320" s="7">
         <v>45897</v>
       </c>
-      <c r="F320" s="7">
+      <c r="F320" s="6">
         <v>45897.326388888891</v>
       </c>
-      <c r="G320" s="7">
+      <c r="G320" s="6">
         <v>45897.337997685187</v>
       </c>
       <c r="H320">
@@ -18324,13 +18324,13 @@
       <c r="D321" t="s">
         <v>590</v>
       </c>
-      <c r="E321" s="8">
+      <c r="E321" s="7">
         <v>45898</v>
       </c>
-      <c r="F321" s="7">
+      <c r="F321" s="6">
         <v>45898.326388888891</v>
       </c>
-      <c r="G321" s="7">
+      <c r="G321" s="6">
         <v>45898.333761574067</v>
       </c>
       <c r="H321">
@@ -18353,13 +18353,13 @@
       <c r="D322" t="s">
         <v>590</v>
       </c>
-      <c r="E322" s="8">
+      <c r="E322" s="7">
         <v>45902</v>
       </c>
-      <c r="F322" s="7">
+      <c r="F322" s="6">
         <v>45902.326388888891</v>
       </c>
-      <c r="G322" s="7">
+      <c r="G322" s="6">
         <v>45902.333993055552</v>
       </c>
       <c r="H322">
@@ -18373,16 +18373,16 @@
       </c>
     </row>
     <row r="323" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A323" s="9" t="s">
+      <c r="A323" s="8" t="s">
         <v>958</v>
       </c>
       <c r="B323">
         <f>SUBTOTAL(3,B319:B322)</f>
         <v>4</v>
       </c>
-      <c r="E323" s="8"/>
-      <c r="F323" s="7"/>
-      <c r="G323" s="7"/>
+      <c r="E323" s="7"/>
+      <c r="F323" s="6"/>
+      <c r="G323" s="6"/>
     </row>
     <row r="324" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B324" t="s">
@@ -18394,13 +18394,13 @@
       <c r="D324" t="s">
         <v>584</v>
       </c>
-      <c r="E324" s="8">
+      <c r="E324" s="7">
         <v>45875</v>
       </c>
-      <c r="F324" s="7">
+      <c r="F324" s="6">
         <v>45875.326388888891</v>
       </c>
-      <c r="G324" s="7">
+      <c r="G324" s="6">
         <v>45875.334016203713</v>
       </c>
       <c r="H324">
@@ -18423,13 +18423,13 @@
       <c r="D325" t="s">
         <v>584</v>
       </c>
-      <c r="E325" s="8">
+      <c r="E325" s="7">
         <v>45877</v>
       </c>
-      <c r="F325" s="7">
+      <c r="F325" s="6">
         <v>45877.326388888891</v>
       </c>
-      <c r="G325" s="7">
+      <c r="G325" s="6">
         <v>45877.336423611108</v>
       </c>
       <c r="H325">
@@ -18452,13 +18452,13 @@
       <c r="D326" t="s">
         <v>584</v>
       </c>
-      <c r="E326" s="8">
+      <c r="E326" s="7">
         <v>45890</v>
       </c>
-      <c r="F326" s="7">
+      <c r="F326" s="6">
         <v>45890.326388888891</v>
       </c>
-      <c r="G326" s="7">
+      <c r="G326" s="6">
         <v>45890.333460648151</v>
       </c>
       <c r="H326">
@@ -18481,13 +18481,13 @@
       <c r="D327" t="s">
         <v>584</v>
       </c>
-      <c r="E327" s="8">
+      <c r="E327" s="7">
         <v>45897</v>
       </c>
-      <c r="F327" s="7">
+      <c r="F327" s="6">
         <v>45897.326388888891</v>
       </c>
-      <c r="G327" s="7">
+      <c r="G327" s="6">
         <v>45897.348599537043</v>
       </c>
       <c r="H327">
@@ -18501,16 +18501,16 @@
       </c>
     </row>
     <row r="328" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A328" s="9" t="s">
+      <c r="A328" s="8" t="s">
         <v>959</v>
       </c>
       <c r="B328">
         <f>SUBTOTAL(3,B324:B327)</f>
         <v>4</v>
       </c>
-      <c r="E328" s="8"/>
-      <c r="F328" s="7"/>
-      <c r="G328" s="7"/>
+      <c r="E328" s="7"/>
+      <c r="F328" s="6"/>
+      <c r="G328" s="6"/>
     </row>
     <row r="329" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B329" t="s">
@@ -18522,13 +18522,13 @@
       <c r="D329" t="s">
         <v>580</v>
       </c>
-      <c r="E329" s="8">
+      <c r="E329" s="7">
         <v>45883</v>
       </c>
-      <c r="F329" s="7">
+      <c r="F329" s="6">
         <v>45883.326388888891</v>
       </c>
-      <c r="G329" s="7">
+      <c r="G329" s="6">
         <v>45883.429085648153</v>
       </c>
       <c r="H329">
@@ -18551,13 +18551,13 @@
       <c r="D330" t="s">
         <v>580</v>
       </c>
-      <c r="E330" s="8">
+      <c r="E330" s="7">
         <v>45891</v>
       </c>
-      <c r="F330" s="7">
+      <c r="F330" s="6">
         <v>45891.326388888891</v>
       </c>
-      <c r="G330" s="7">
+      <c r="G330" s="6">
         <v>45891.334467592591</v>
       </c>
       <c r="H330">
@@ -18571,16 +18571,16 @@
       </c>
     </row>
     <row r="331" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A331" s="9" t="s">
+      <c r="A331" s="8" t="s">
         <v>960</v>
       </c>
       <c r="B331">
         <f>SUBTOTAL(3,B329:B330)</f>
         <v>2</v>
       </c>
-      <c r="E331" s="8"/>
-      <c r="F331" s="7"/>
-      <c r="G331" s="7"/>
+      <c r="E331" s="7"/>
+      <c r="F331" s="6"/>
+      <c r="G331" s="6"/>
     </row>
     <row r="332" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B332" t="s">
@@ -18592,13 +18592,13 @@
       <c r="D332" t="s">
         <v>580</v>
       </c>
-      <c r="E332" s="8">
+      <c r="E332" s="7">
         <v>45887</v>
       </c>
-      <c r="F332" s="7">
+      <c r="F332" s="6">
         <v>45887.243055555547</v>
       </c>
-      <c r="G332" s="7">
+      <c r="G332" s="6">
         <v>45887.320370370369</v>
       </c>
       <c r="H332">
@@ -18612,16 +18612,16 @@
       </c>
     </row>
     <row r="333" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A333" s="9" t="s">
+      <c r="A333" s="8" t="s">
         <v>961</v>
       </c>
       <c r="B333">
         <f>SUBTOTAL(3,B332:B332)</f>
         <v>1</v>
       </c>
-      <c r="E333" s="8"/>
-      <c r="F333" s="7"/>
-      <c r="G333" s="7"/>
+      <c r="E333" s="7"/>
+      <c r="F333" s="6"/>
+      <c r="G333" s="6"/>
     </row>
     <row r="334" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B334" t="s">
@@ -18633,13 +18633,13 @@
       <c r="D334" t="s">
         <v>580</v>
       </c>
-      <c r="E334" s="8">
+      <c r="E334" s="7">
         <v>45896</v>
       </c>
-      <c r="F334" s="7">
+      <c r="F334" s="6">
         <v>45896.326388888891</v>
       </c>
-      <c r="G334" s="7">
+      <c r="G334" s="6">
         <v>45896.374189814807</v>
       </c>
       <c r="H334">
@@ -18653,16 +18653,16 @@
       </c>
     </row>
     <row r="335" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A335" s="9" t="s">
+      <c r="A335" s="8" t="s">
         <v>962</v>
       </c>
       <c r="B335">
         <f>SUBTOTAL(3,B334:B334)</f>
         <v>1</v>
       </c>
-      <c r="E335" s="8"/>
-      <c r="F335" s="7"/>
-      <c r="G335" s="7"/>
+      <c r="E335" s="7"/>
+      <c r="F335" s="6"/>
+      <c r="G335" s="6"/>
     </row>
     <row r="336" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B336" t="s">
@@ -18674,13 +18674,13 @@
       <c r="D336" t="s">
         <v>580</v>
       </c>
-      <c r="E336" s="8">
+      <c r="E336" s="7">
         <v>45894</v>
       </c>
-      <c r="F336" s="7">
+      <c r="F336" s="6">
         <v>45894.326388888891</v>
       </c>
-      <c r="G336" s="7">
+      <c r="G336" s="6">
         <v>45894.40384259259</v>
       </c>
       <c r="H336">
@@ -18703,13 +18703,13 @@
       <c r="D337" t="s">
         <v>580</v>
       </c>
-      <c r="E337" s="8">
+      <c r="E337" s="7">
         <v>45897</v>
       </c>
-      <c r="F337" s="7">
+      <c r="F337" s="6">
         <v>45897.326388888891</v>
       </c>
-      <c r="G337" s="7">
+      <c r="G337" s="6">
         <v>45897.343333333331</v>
       </c>
       <c r="H337">
@@ -18723,16 +18723,16 @@
       </c>
     </row>
     <row r="338" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A338" s="9" t="s">
+      <c r="A338" s="8" t="s">
         <v>963</v>
       </c>
       <c r="B338">
         <f>SUBTOTAL(3,B336:B337)</f>
         <v>2</v>
       </c>
-      <c r="E338" s="8"/>
-      <c r="F338" s="7"/>
-      <c r="G338" s="7"/>
+      <c r="E338" s="7"/>
+      <c r="F338" s="6"/>
+      <c r="G338" s="6"/>
     </row>
     <row r="339" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B339" t="s">
@@ -18744,13 +18744,13 @@
       <c r="D339" t="s">
         <v>581</v>
       </c>
-      <c r="E339" s="8">
+      <c r="E339" s="7">
         <v>45875</v>
       </c>
-      <c r="F339" s="7">
+      <c r="F339" s="6">
         <v>45875.326388888891</v>
       </c>
-      <c r="G339" s="7">
+      <c r="G339" s="6">
         <v>45875.33965277778</v>
       </c>
       <c r="H339">
@@ -18764,16 +18764,16 @@
       </c>
     </row>
     <row r="340" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A340" s="9" t="s">
+      <c r="A340" s="8" t="s">
         <v>964</v>
       </c>
       <c r="B340">
         <f>SUBTOTAL(3,B339:B339)</f>
         <v>1</v>
       </c>
-      <c r="E340" s="8"/>
-      <c r="F340" s="7"/>
-      <c r="G340" s="7"/>
+      <c r="E340" s="7"/>
+      <c r="F340" s="6"/>
+      <c r="G340" s="6"/>
     </row>
     <row r="341" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B341" t="s">
@@ -18785,13 +18785,13 @@
       <c r="D341" t="s">
         <v>580</v>
       </c>
-      <c r="E341" s="8">
+      <c r="E341" s="7">
         <v>45887</v>
       </c>
-      <c r="F341" s="7">
+      <c r="F341" s="6">
         <v>45887.243055555547</v>
       </c>
-      <c r="G341" s="7">
+      <c r="G341" s="6">
         <v>45887.321168981478</v>
       </c>
       <c r="H341">
@@ -18805,16 +18805,16 @@
       </c>
     </row>
     <row r="342" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A342" s="9" t="s">
+      <c r="A342" s="8" t="s">
         <v>965</v>
       </c>
       <c r="B342">
         <f>SUBTOTAL(3,B341:B341)</f>
         <v>1</v>
       </c>
-      <c r="E342" s="8"/>
-      <c r="F342" s="7"/>
-      <c r="G342" s="7"/>
+      <c r="E342" s="7"/>
+      <c r="F342" s="6"/>
+      <c r="G342" s="6"/>
     </row>
     <row r="343" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B343" t="s">
@@ -18826,13 +18826,13 @@
       <c r="D343" t="s">
         <v>580</v>
       </c>
-      <c r="E343" s="8">
+      <c r="E343" s="7">
         <v>45898</v>
       </c>
-      <c r="F343" s="7">
+      <c r="F343" s="6">
         <v>45898.326388888891</v>
       </c>
-      <c r="G343" s="7">
+      <c r="G343" s="6">
         <v>45898.339270833327</v>
       </c>
       <c r="H343">
@@ -18846,16 +18846,16 @@
       </c>
     </row>
     <row r="344" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A344" s="9" t="s">
+      <c r="A344" s="8" t="s">
         <v>966</v>
       </c>
       <c r="B344">
         <f>SUBTOTAL(3,B343:B343)</f>
         <v>1</v>
       </c>
-      <c r="E344" s="8"/>
-      <c r="F344" s="7"/>
-      <c r="G344" s="7"/>
+      <c r="E344" s="7"/>
+      <c r="F344" s="6"/>
+      <c r="G344" s="6"/>
     </row>
     <row r="345" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B345" t="s">
@@ -18867,13 +18867,13 @@
       <c r="D345" t="s">
         <v>580</v>
       </c>
-      <c r="E345" s="8">
+      <c r="E345" s="7">
         <v>45887</v>
       </c>
-      <c r="F345" s="7">
+      <c r="F345" s="6">
         <v>45887.326388888891</v>
       </c>
-      <c r="G345" s="7">
+      <c r="G345" s="6">
         <v>45887.338993055557</v>
       </c>
       <c r="H345">
@@ -18887,28 +18887,28 @@
       </c>
     </row>
     <row r="346" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A346" s="9" t="s">
+      <c r="A346" s="8" t="s">
         <v>967</v>
       </c>
       <c r="B346">
         <f>SUBTOTAL(3,B345:B345)</f>
         <v>1</v>
       </c>
-      <c r="E346" s="8"/>
-      <c r="F346" s="7"/>
-      <c r="G346" s="7"/>
+      <c r="E346" s="7"/>
+      <c r="F346" s="6"/>
+      <c r="G346" s="6"/>
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A347" s="9" t="s">
+      <c r="A347" s="8" t="s">
         <v>968</v>
       </c>
       <c r="B347">
         <f>SUBTOTAL(3,B2:B345)</f>
         <v>254</v>
       </c>
-      <c r="E347" s="8"/>
-      <c r="F347" s="7"/>
-      <c r="G347" s="7"/>
+      <c r="E347" s="7"/>
+      <c r="F347" s="6"/>
+      <c r="G347" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:J345"/>
@@ -19523,13 +19523,13 @@
       <c r="E1" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="16" t="s">
         <v>621</v>
       </c>
-      <c r="G1" s="4"/>
+      <c r="G1" s="16"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="16" t="s">
         <v>624</v>
       </c>
       <c r="B2" s="1">
@@ -19552,7 +19552,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="1">
         <v>159344169</v>
       </c>
@@ -19573,11 +19573,11 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16">
         <v>177812021</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="16" t="s">
         <v>637</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -19594,9 +19594,9 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
       <c r="D5" s="1" t="s">
         <v>660</v>
       </c>
@@ -19611,7 +19611,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="1">
         <v>187654173</v>
       </c>
@@ -19632,7 +19632,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="1">
         <v>212892254</v>
       </c>
@@ -19653,13 +19653,13 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="16" t="s">
         <v>625</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="16">
         <v>94911591</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="16" t="s">
         <v>640</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -19676,9 +19676,9 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
       <c r="D9" s="1" t="s">
         <v>660</v>
       </c>
@@ -19693,11 +19693,11 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16">
         <v>99010339</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="16" t="s">
         <v>641</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -19714,9 +19714,9 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
       <c r="D11" s="1" t="s">
         <v>660</v>
       </c>
@@ -19731,7 +19731,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="1">
         <v>123141326</v>
       </c>
@@ -19752,11 +19752,11 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16">
         <v>135588369</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="16" t="s">
         <v>643</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -19773,9 +19773,9 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
       <c r="D14" s="1" t="s">
         <v>660</v>
       </c>
@@ -19790,11 +19790,11 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16">
         <v>163238640</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="16" t="s">
         <v>644</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -19811,9 +19811,9 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
       <c r="D16" s="1" t="s">
         <v>660</v>
       </c>
@@ -19828,11 +19828,11 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16">
         <v>170495748</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="16" t="s">
         <v>645</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -19849,9 +19849,9 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
       <c r="D18" s="1" t="s">
         <v>660</v>
       </c>
@@ -19866,7 +19866,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
+      <c r="A19" s="16"/>
       <c r="B19" s="1">
         <v>177812021</v>
       </c>
@@ -19887,7 +19887,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
+      <c r="A20" s="16"/>
       <c r="B20" s="1">
         <v>187654173</v>
       </c>
@@ -19908,11 +19908,11 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4">
+      <c r="A21" s="16"/>
+      <c r="B21" s="16">
         <v>196486720</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="16" t="s">
         <v>646</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -19929,9 +19929,9 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
       <c r="D22" s="1" t="s">
         <v>660</v>
       </c>
@@ -19946,11 +19946,11 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4">
+      <c r="A23" s="16"/>
+      <c r="B23" s="16">
         <v>198189480</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="16" t="s">
         <v>647</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -19967,9 +19967,9 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
       <c r="D24" s="1" t="s">
         <v>660</v>
       </c>
@@ -19984,7 +19984,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
+      <c r="A25" s="16"/>
       <c r="B25" s="1">
         <v>198718947</v>
       </c>
@@ -20005,7 +20005,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
+      <c r="A26" s="16"/>
       <c r="B26" s="1">
         <v>200536622</v>
       </c>
@@ -20026,11 +20026,11 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4">
+      <c r="A27" s="16"/>
+      <c r="B27" s="16">
         <v>218494412</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="16" t="s">
         <v>650</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -20047,9 +20047,9 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
       <c r="D28" s="1" t="s">
         <v>660</v>
       </c>
@@ -20064,7 +20064,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
+      <c r="A29" s="16"/>
       <c r="B29" s="1" t="s">
         <v>632</v>
       </c>
@@ -20085,7 +20085,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
+      <c r="A30" s="16"/>
       <c r="B30" s="1" t="s">
         <v>633</v>
       </c>
@@ -20152,13 +20152,13 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="16" t="s">
         <v>628</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="16">
         <v>270363067</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="16" t="s">
         <v>654</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -20175,9 +20175,9 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
       <c r="D34" s="1" t="s">
         <v>660</v>
       </c>
@@ -20215,7 +20215,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="16" t="s">
         <v>630</v>
       </c>
       <c r="B36" s="1">
@@ -20238,7 +20238,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
+      <c r="A37" s="16"/>
       <c r="B37" s="1">
         <v>158207796</v>
       </c>
@@ -20259,7 +20259,7 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
+      <c r="A38" s="16"/>
       <c r="B38" s="1">
         <v>205808078</v>
       </c>
@@ -20280,7 +20280,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
+      <c r="A39" s="16"/>
       <c r="B39" s="1">
         <v>215309533</v>
       </c>
@@ -20301,7 +20301,7 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
+      <c r="A40" s="16"/>
       <c r="B40" s="1" t="s">
         <v>634</v>
       </c>
@@ -20322,7 +20322,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
+      <c r="A41" s="16"/>
       <c r="B41" s="1" t="s">
         <v>635</v>
       </c>
@@ -20370,15 +20370,6 @@
     <filterColumn colId="5" showButton="0"/>
   </autoFilter>
   <mergeCells count="25">
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A8:A30"/>
@@ -20395,6 +20386,15 @@
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20439,10 +20439,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="16" t="s">
         <v>668</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="16" t="s">
         <v>193</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -20459,8 +20459,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="1" t="s">
         <v>753</v>
       </c>
@@ -20515,10 +20515,10 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="16" t="s">
         <v>671</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="16" t="s">
         <v>262</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -20535,8 +20535,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="1" t="s">
         <v>756</v>
       </c>
@@ -20551,8 +20551,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="1" t="s">
         <v>752</v>
       </c>
@@ -20567,8 +20567,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="1" t="s">
         <v>753</v>
       </c>
@@ -20583,8 +20583,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="1" t="s">
         <v>757</v>
       </c>
@@ -20659,10 +20659,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="16" t="s">
         <v>675</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="16" t="s">
         <v>222</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -20679,8 +20679,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
       <c r="C15" s="1" t="s">
         <v>761</v>
       </c>
@@ -20735,10 +20735,10 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="16" t="s">
         <v>678</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="16" t="s">
         <v>744</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -20755,8 +20755,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
       <c r="C19" s="1" t="s">
         <v>765</v>
       </c>
@@ -20791,10 +20791,10 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="16" t="s">
         <v>680</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="16" t="s">
         <v>218</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -20811,8 +20811,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
       <c r="C22" s="1" t="s">
         <v>765</v>
       </c>
@@ -20867,10 +20867,10 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="16" t="s">
         <v>683</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="16" t="s">
         <v>63</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -20887,8 +20887,8 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
       <c r="C26" s="1" t="s">
         <v>768</v>
       </c>
@@ -20903,8 +20903,8 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
       <c r="C27" s="1" t="s">
         <v>757</v>
       </c>
@@ -20979,10 +20979,10 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="16" t="s">
         <v>687</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="16" t="s">
         <v>104</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -20999,8 +20999,8 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
       <c r="C32" s="1" t="s">
         <v>758</v>
       </c>
@@ -21035,10 +21035,10 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="16" t="s">
         <v>689</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="16" t="s">
         <v>140</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -21055,8 +21055,8 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
       <c r="C35" s="1" t="s">
         <v>771</v>
       </c>
@@ -21091,10 +21091,10 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="16" t="s">
         <v>691</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="16" t="s">
         <v>109</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -21111,8 +21111,8 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
       <c r="C38" s="1" t="s">
         <v>772</v>
       </c>
@@ -21187,10 +21187,10 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="16" t="s">
         <v>695</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="16" t="s">
         <v>257</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -21207,8 +21207,8 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
+      <c r="A43" s="16"/>
+      <c r="B43" s="16"/>
       <c r="C43" s="1" t="s">
         <v>773</v>
       </c>
@@ -21223,10 +21223,10 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="16" t="s">
         <v>696</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="16" t="s">
         <v>256</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -21243,8 +21243,8 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
+      <c r="A45" s="16"/>
+      <c r="B45" s="16"/>
       <c r="C45" s="1" t="s">
         <v>759</v>
       </c>
@@ -21339,10 +21339,10 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="16" t="s">
         <v>701</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="16" t="s">
         <v>138</v>
       </c>
       <c r="C50" s="1" t="s">
@@ -21359,8 +21359,8 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
+      <c r="A51" s="16"/>
+      <c r="B51" s="16"/>
       <c r="C51" s="1" t="s">
         <v>766</v>
       </c>
@@ -21495,10 +21495,10 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="16" t="s">
         <v>708</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="16" t="s">
         <v>249</v>
       </c>
       <c r="C58" s="1" t="s">
@@ -21515,8 +21515,8 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="16"/>
       <c r="C59" s="1" t="s">
         <v>765</v>
       </c>
@@ -21631,10 +21631,10 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="16" t="s">
         <v>714</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="16" t="s">
         <v>68</v>
       </c>
       <c r="C65" s="1" t="s">
@@ -21651,8 +21651,8 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
+      <c r="A66" s="16"/>
+      <c r="B66" s="16"/>
       <c r="C66" s="1" t="s">
         <v>767</v>
       </c>
@@ -21667,10 +21667,10 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="16" t="s">
         <v>715</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="16" t="s">
         <v>59</v>
       </c>
       <c r="C67" s="1" t="s">
@@ -21687,8 +21687,8 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="4"/>
-      <c r="B68" s="4"/>
+      <c r="A68" s="16"/>
+      <c r="B68" s="16"/>
       <c r="C68" s="1" t="s">
         <v>761</v>
       </c>
@@ -21723,10 +21723,10 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
+      <c r="A70" s="16" t="s">
         <v>717</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="16" t="s">
         <v>228</v>
       </c>
       <c r="C70" s="1" t="s">
@@ -21743,8 +21743,8 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="4"/>
-      <c r="B71" s="4"/>
+      <c r="A71" s="16"/>
+      <c r="B71" s="16"/>
       <c r="C71" s="1" t="s">
         <v>761</v>
       </c>
@@ -21799,10 +21799,10 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
+      <c r="A74" s="16" t="s">
         <v>720</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B74" s="16" t="s">
         <v>13</v>
       </c>
       <c r="C74" s="1" t="s">
@@ -21819,8 +21819,8 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="4"/>
-      <c r="B75" s="4"/>
+      <c r="A75" s="16"/>
+      <c r="B75" s="16"/>
       <c r="C75" s="1" t="s">
         <v>771</v>
       </c>
@@ -21835,8 +21835,8 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="4"/>
-      <c r="B76" s="4"/>
+      <c r="A76" s="16"/>
+      <c r="B76" s="16"/>
       <c r="C76" s="1" t="s">
         <v>770</v>
       </c>
@@ -21851,10 +21851,10 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
+      <c r="A77" s="16" t="s">
         <v>721</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B77" s="16" t="s">
         <v>205</v>
       </c>
       <c r="C77" s="1" t="s">
@@ -21871,8 +21871,8 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="4"/>
-      <c r="B78" s="4"/>
+      <c r="A78" s="16"/>
+      <c r="B78" s="16"/>
       <c r="C78" s="1" t="s">
         <v>761</v>
       </c>
@@ -21947,10 +21947,10 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="4" t="s">
+      <c r="A82" s="16" t="s">
         <v>725</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B82" s="16" t="s">
         <v>129</v>
       </c>
       <c r="C82" s="1" t="s">
@@ -21967,8 +21967,8 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="4"/>
-      <c r="B83" s="4"/>
+      <c r="A83" s="16"/>
+      <c r="B83" s="16"/>
       <c r="C83" s="1" t="s">
         <v>761</v>
       </c>
@@ -22003,10 +22003,10 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="4" t="s">
+      <c r="A85" s="16" t="s">
         <v>727</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B85" s="16" t="s">
         <v>54</v>
       </c>
       <c r="C85" s="1" t="s">
@@ -22023,8 +22023,8 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="4"/>
-      <c r="B86" s="4"/>
+      <c r="A86" s="16"/>
+      <c r="B86" s="16"/>
       <c r="C86" s="1" t="s">
         <v>768</v>
       </c>
@@ -22099,10 +22099,10 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="4" t="s">
+      <c r="A90" s="16" t="s">
         <v>731</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="B90" s="16" t="s">
         <v>31</v>
       </c>
       <c r="C90" s="1" t="s">
@@ -22119,8 +22119,8 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="4"/>
-      <c r="B91" s="4"/>
+      <c r="A91" s="16"/>
+      <c r="B91" s="16"/>
       <c r="C91" s="1" t="s">
         <v>772</v>
       </c>
@@ -22155,10 +22155,10 @@
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="4" t="s">
+      <c r="A93" s="16" t="s">
         <v>733</v>
       </c>
-      <c r="B93" s="4" t="s">
+      <c r="B93" s="16" t="s">
         <v>56</v>
       </c>
       <c r="C93" s="1" t="s">
@@ -22175,8 +22175,8 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="4"/>
-      <c r="B94" s="4"/>
+      <c r="A94" s="16"/>
+      <c r="B94" s="16"/>
       <c r="C94" s="1" t="s">
         <v>770</v>
       </c>
@@ -22191,10 +22191,10 @@
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="4" t="s">
+      <c r="A95" s="16" t="s">
         <v>734</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="B95" s="16" t="s">
         <v>160</v>
       </c>
       <c r="C95" s="1" t="s">
@@ -22211,8 +22211,8 @@
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="4"/>
-      <c r="B96" s="4"/>
+      <c r="A96" s="16"/>
+      <c r="B96" s="16"/>
       <c r="C96" s="1" t="s">
         <v>757</v>
       </c>
@@ -22287,10 +22287,10 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="4" t="s">
+      <c r="A100" s="16" t="s">
         <v>738</v>
       </c>
-      <c r="B100" s="4" t="s">
+      <c r="B100" s="16" t="s">
         <v>184</v>
       </c>
       <c r="C100" s="1" t="s">
@@ -22307,8 +22307,8 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="4"/>
-      <c r="B101" s="4"/>
+      <c r="A101" s="16"/>
+      <c r="B101" s="16"/>
       <c r="C101" s="1" t="s">
         <v>768</v>
       </c>
@@ -22323,8 +22323,8 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="4"/>
-      <c r="B102" s="4"/>
+      <c r="A102" s="16"/>
+      <c r="B102" s="16"/>
       <c r="C102" s="1" t="s">
         <v>761</v>
       </c>
@@ -22339,8 +22339,8 @@
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="4"/>
-      <c r="B103" s="4"/>
+      <c r="A103" s="16"/>
+      <c r="B103" s="16"/>
       <c r="C103" s="1" t="s">
         <v>771</v>
       </c>
@@ -22355,10 +22355,10 @@
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="4" t="s">
+      <c r="A104" s="16" t="s">
         <v>739</v>
       </c>
-      <c r="B104" s="4" t="s">
+      <c r="B104" s="16" t="s">
         <v>209</v>
       </c>
       <c r="C104" s="1" t="s">
@@ -22375,8 +22375,8 @@
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="4"/>
-      <c r="B105" s="4"/>
+      <c r="A105" s="16"/>
+      <c r="B105" s="16"/>
       <c r="C105" s="1" t="s">
         <v>757</v>
       </c>
@@ -22411,10 +22411,10 @@
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="4" t="s">
+      <c r="A107" s="16" t="s">
         <v>741</v>
       </c>
-      <c r="B107" s="4" t="s">
+      <c r="B107" s="16" t="s">
         <v>751</v>
       </c>
       <c r="C107" s="1" t="s">
@@ -22431,8 +22431,8 @@
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="4"/>
-      <c r="B108" s="4"/>
+      <c r="A108" s="16"/>
+      <c r="B108" s="16"/>
       <c r="C108" s="1" t="s">
         <v>763</v>
       </c>
@@ -22447,10 +22447,10 @@
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="4" t="s">
+      <c r="A109" s="16" t="s">
         <v>742</v>
       </c>
-      <c r="B109" s="4" t="s">
+      <c r="B109" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C109" s="1" t="s">
@@ -22467,8 +22467,8 @@
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="4"/>
-      <c r="B110" s="4"/>
+      <c r="A110" s="16"/>
+      <c r="B110" s="16"/>
       <c r="C110" s="1" t="s">
         <v>759</v>
       </c>
@@ -22485,19 +22485,31 @@
   </sheetData>
   <autoFilter ref="A1:F110"/>
   <mergeCells count="54">
-    <mergeCell ref="B104:B105"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="B100:B103"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A74:A76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="A100:A103"/>
+    <mergeCell ref="A104:A105"/>
     <mergeCell ref="A107:A108"/>
     <mergeCell ref="A109:A110"/>
     <mergeCell ref="B2:B3"/>
@@ -22514,31 +22526,19 @@
     <mergeCell ref="B50:B51"/>
     <mergeCell ref="B58:B59"/>
     <mergeCell ref="B65:B66"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="A100:A103"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A74:A76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="B100:B103"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22582,10 +22582,10 @@
       <c r="F1" s="1" t="s">
         <v>874</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>876</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>875</v>
       </c>
     </row>
